--- a/AccessibleVaccineDashboardData/2021-02-14.xlsx
+++ b/AccessibleVaccineDashboardData/2021-02-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FEBF695-2E61-4B43-A701-9025E09FC0A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A78E0A-A60B-43D6-A87D-3FC57ED58344}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1575,7 +1575,7 @@
     <col min="2" max="2" width="121.46484375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="48.65" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>270</v>
       </c>
@@ -1583,15 +1583,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>305</v>
       </c>
       <c r="B2" s="29">
-        <v>44240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>264</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>261</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>265</v>
       </c>
@@ -1700,18 +1700,18 @@
     <col min="1" max="1" width="19" style="14" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.19921875" style="5"/>
     <col min="13" max="14" width="9.19921875" style="12"/>
     <col min="15" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="64.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1756,20 +1756,20 @@
         <v>263</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(C3:C258)</f>
+        <f t="shared" ref="C2:K2" si="0">SUM(C4:C258)</f>
         <v>5225050</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>3964801</v>
+        <f t="shared" si="0"/>
+        <v>4090423</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2861794</v>
+        <v>2931147</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>1103007</v>
+        <v>1159276</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1794,7 +1794,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>296</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -1842,13 +1842,13 @@
         <v>6200</v>
       </c>
       <c r="D4" s="37">
-        <v>3251</v>
+        <v>3891</v>
       </c>
       <c r="E4" s="37">
-        <v>2610</v>
+        <v>2710</v>
       </c>
       <c r="F4" s="37">
-        <v>641</v>
+        <v>1181</v>
       </c>
       <c r="G4" s="38">
         <v>48045</v>
@@ -1866,7 +1866,7 @@
         <v>20206</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
@@ -1877,13 +1877,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="37">
-        <v>2940</v>
+        <v>2991</v>
       </c>
       <c r="E5" s="37">
-        <v>2317</v>
+        <v>2361</v>
       </c>
       <c r="F5" s="37">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="G5" s="38">
         <v>13503</v>
@@ -1901,7 +1901,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -1912,13 +1912,13 @@
         <v>15700</v>
       </c>
       <c r="D6" s="37">
-        <v>12969</v>
+        <v>13266</v>
       </c>
       <c r="E6" s="37">
-        <v>8841</v>
+        <v>8992</v>
       </c>
       <c r="F6" s="37">
-        <v>4128</v>
+        <v>4274</v>
       </c>
       <c r="G6" s="38">
         <v>67056</v>
@@ -1936,7 +1936,7 @@
         <v>28054</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>9</v>
       </c>
@@ -1947,13 +1947,13 @@
         <v>1100</v>
       </c>
       <c r="D7" s="37">
-        <v>2767</v>
+        <v>2947</v>
       </c>
       <c r="E7" s="37">
-        <v>2091</v>
+        <v>2200</v>
       </c>
       <c r="F7" s="37">
-        <v>676</v>
+        <v>747</v>
       </c>
       <c r="G7" s="38">
         <v>19803</v>
@@ -1971,7 +1971,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
@@ -1982,13 +1982,13 @@
         <v>700</v>
       </c>
       <c r="D8" s="37">
-        <v>1642</v>
+        <v>1726</v>
       </c>
       <c r="E8" s="37">
-        <v>1146</v>
+        <v>1191</v>
       </c>
       <c r="F8" s="37">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="G8" s="38">
         <v>6921</v>
@@ -2006,7 +2006,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>11</v>
       </c>
@@ -2017,13 +2017,13 @@
         <v>400</v>
       </c>
       <c r="D9" s="37">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E9" s="37">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F9" s="37">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G9" s="38">
         <v>1499</v>
@@ -2041,7 +2041,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
@@ -2052,13 +2052,13 @@
         <v>3600</v>
       </c>
       <c r="D10" s="37">
-        <v>4475</v>
+        <v>4629</v>
       </c>
       <c r="E10" s="37">
-        <v>3186</v>
+        <v>3289</v>
       </c>
       <c r="F10" s="37">
-        <v>1289</v>
+        <v>1340</v>
       </c>
       <c r="G10" s="38">
         <v>38768</v>
@@ -2076,7 +2076,7 @@
         <v>15239</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
@@ -2087,13 +2087,13 @@
         <v>2000</v>
       </c>
       <c r="D11" s="37">
-        <v>4228</v>
+        <v>4322</v>
       </c>
       <c r="E11" s="37">
-        <v>3235</v>
+        <v>3294</v>
       </c>
       <c r="F11" s="37">
-        <v>993</v>
+        <v>1028</v>
       </c>
       <c r="G11" s="38">
         <v>23704</v>
@@ -2111,7 +2111,7 @@
         <v>7873</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>15</v>
       </c>
@@ -2122,13 +2122,13 @@
         <v>5475</v>
       </c>
       <c r="D12" s="37">
-        <v>2426</v>
+        <v>2445</v>
       </c>
       <c r="E12" s="37">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="F12" s="37">
-        <v>984</v>
+        <v>1006</v>
       </c>
       <c r="G12" s="38">
         <v>5089</v>
@@ -2146,7 +2146,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>16</v>
       </c>
@@ -2157,13 +2157,13 @@
         <v>500</v>
       </c>
       <c r="D13" s="37">
-        <v>2342</v>
+        <v>2551</v>
       </c>
       <c r="E13" s="37">
-        <v>1869</v>
+        <v>2050</v>
       </c>
       <c r="F13" s="37">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="G13" s="38">
         <v>19763</v>
@@ -2181,7 +2181,7 @@
         <v>6555</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>17</v>
       </c>
@@ -2192,13 +2192,13 @@
         <v>7500</v>
       </c>
       <c r="D14" s="37">
-        <v>5465</v>
+        <v>5602</v>
       </c>
       <c r="E14" s="37">
-        <v>3786</v>
+        <v>3850</v>
       </c>
       <c r="F14" s="37">
-        <v>1679</v>
+        <v>1752</v>
       </c>
       <c r="G14" s="38">
         <v>68839</v>
@@ -2216,7 +2216,7 @@
         <v>29356</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
@@ -2227,13 +2227,13 @@
         <v>2950</v>
       </c>
       <c r="D15" s="37">
-        <v>1231</v>
+        <v>1504</v>
       </c>
       <c r="E15" s="37">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="F15" s="37">
-        <v>396</v>
+        <v>656</v>
       </c>
       <c r="G15" s="38">
         <v>2793</v>
@@ -2251,7 +2251,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>19</v>
       </c>
@@ -2262,13 +2262,13 @@
         <v>16925</v>
       </c>
       <c r="D16" s="37">
-        <v>8226</v>
+        <v>8309</v>
       </c>
       <c r="E16" s="37">
-        <v>5512</v>
+        <v>5544</v>
       </c>
       <c r="F16" s="37">
-        <v>2714</v>
+        <v>2765</v>
       </c>
       <c r="G16" s="38">
         <v>26496</v>
@@ -2286,7 +2286,7 @@
         <v>11359</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>20</v>
       </c>
@@ -2297,13 +2297,13 @@
         <v>49450</v>
       </c>
       <c r="D17" s="37">
-        <v>33849</v>
+        <v>35421</v>
       </c>
       <c r="E17" s="37">
-        <v>22862</v>
+        <v>24183</v>
       </c>
       <c r="F17" s="37">
-        <v>10987</v>
+        <v>11238</v>
       </c>
       <c r="G17" s="38">
         <v>272969</v>
@@ -2321,7 +2321,7 @@
         <v>95066</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>21</v>
       </c>
@@ -2329,16 +2329,16 @@
         <v>275</v>
       </c>
       <c r="C18" s="37">
-        <v>376100</v>
+        <v>378050</v>
       </c>
       <c r="D18" s="37">
-        <v>274349</v>
+        <v>286558</v>
       </c>
       <c r="E18" s="37">
-        <v>193732</v>
+        <v>201180</v>
       </c>
       <c r="F18" s="37">
-        <v>80617</v>
+        <v>85378</v>
       </c>
       <c r="G18" s="38">
         <v>1552823</v>
@@ -2367,13 +2367,13 @@
         <v>900</v>
       </c>
       <c r="D19" s="37">
-        <v>1859</v>
+        <v>1880</v>
       </c>
       <c r="E19" s="37">
-        <v>1543</v>
+        <v>1562</v>
       </c>
       <c r="F19" s="37">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G19" s="38">
         <v>10092</v>
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="37">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E20" s="37">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="38">
         <v>543</v>
@@ -2437,13 +2437,13 @@
         <v>2900</v>
       </c>
       <c r="D21" s="37">
-        <v>2241</v>
+        <v>2607</v>
       </c>
       <c r="E21" s="37">
-        <v>1432</v>
+        <v>1625</v>
       </c>
       <c r="F21" s="37">
-        <v>809</v>
+        <v>982</v>
       </c>
       <c r="G21" s="38">
         <v>15224</v>
@@ -2472,13 +2472,13 @@
         <v>13350</v>
       </c>
       <c r="D22" s="37">
-        <v>6366</v>
+        <v>6685</v>
       </c>
       <c r="E22" s="37">
-        <v>4187</v>
+        <v>4448</v>
       </c>
       <c r="F22" s="37">
-        <v>2179</v>
+        <v>2237</v>
       </c>
       <c r="G22" s="38">
         <v>73689</v>
@@ -2507,13 +2507,13 @@
         <v>32000</v>
       </c>
       <c r="D23" s="37">
-        <v>48420</v>
+        <v>49922</v>
       </c>
       <c r="E23" s="37">
-        <v>33914</v>
+        <v>34735</v>
       </c>
       <c r="F23" s="37">
-        <v>14506</v>
+        <v>15187</v>
       </c>
       <c r="G23" s="38">
         <v>287683</v>
@@ -2542,13 +2542,13 @@
         <v>29100</v>
       </c>
       <c r="D24" s="37">
-        <v>20105</v>
+        <v>21198</v>
       </c>
       <c r="E24" s="37">
-        <v>15734</v>
+        <v>15902</v>
       </c>
       <c r="F24" s="37">
-        <v>4371</v>
+        <v>5296</v>
       </c>
       <c r="G24" s="38">
         <v>186843</v>
@@ -2577,13 +2577,13 @@
         <v>1300</v>
       </c>
       <c r="D25" s="37">
-        <v>2188</v>
+        <v>2310</v>
       </c>
       <c r="E25" s="37">
-        <v>1857</v>
+        <v>1947</v>
       </c>
       <c r="F25" s="37">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="G25" s="38">
         <v>7706</v>
@@ -2612,13 +2612,13 @@
         <v>400</v>
       </c>
       <c r="D26" s="37">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E26" s="37">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F26" s="37">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="38">
         <v>1272</v>
@@ -2647,13 +2647,13 @@
         <v>900</v>
       </c>
       <c r="D27" s="37">
-        <v>1183</v>
+        <v>1208</v>
       </c>
       <c r="E27" s="37">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="F27" s="37">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G27" s="38">
         <v>5317</v>
@@ -2682,13 +2682,13 @@
         <v>2700</v>
       </c>
       <c r="D28" s="37">
-        <v>3495</v>
+        <v>3563</v>
       </c>
       <c r="E28" s="37">
-        <v>2513</v>
+        <v>2547</v>
       </c>
       <c r="F28" s="37">
-        <v>982</v>
+        <v>1016</v>
       </c>
       <c r="G28" s="38">
         <v>30883</v>
@@ -2717,13 +2717,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="37">
-        <v>1953</v>
+        <v>2062</v>
       </c>
       <c r="E29" s="37">
-        <v>1463</v>
+        <v>1525</v>
       </c>
       <c r="F29" s="37">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="G29" s="38">
         <v>14869</v>
@@ -2752,13 +2752,13 @@
         <v>6425</v>
       </c>
       <c r="D30" s="37">
-        <v>4344</v>
+        <v>4562</v>
       </c>
       <c r="E30" s="37">
-        <v>3326</v>
+        <v>3519</v>
       </c>
       <c r="F30" s="37">
-        <v>1018</v>
+        <v>1043</v>
       </c>
       <c r="G30" s="38">
         <v>39239</v>
@@ -2787,13 +2787,13 @@
         <v>3300</v>
       </c>
       <c r="D31" s="37">
-        <v>3190</v>
+        <v>3311</v>
       </c>
       <c r="E31" s="37">
-        <v>2221</v>
+        <v>2298</v>
       </c>
       <c r="F31" s="37">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="G31" s="38">
         <v>34853</v>
@@ -2822,13 +2822,13 @@
         <v>1200</v>
       </c>
       <c r="D32" s="37">
-        <v>2267</v>
+        <v>2608</v>
       </c>
       <c r="E32" s="37">
-        <v>1613</v>
+        <v>1847</v>
       </c>
       <c r="F32" s="37">
-        <v>654</v>
+        <v>761</v>
       </c>
       <c r="G32" s="38">
         <v>16817</v>
@@ -2857,13 +2857,13 @@
         <v>1000</v>
       </c>
       <c r="D33" s="37">
-        <v>1557</v>
+        <v>1572</v>
       </c>
       <c r="E33" s="37">
-        <v>1117</v>
+        <v>1128</v>
       </c>
       <c r="F33" s="37">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G33" s="38">
         <v>11263</v>
@@ -2892,13 +2892,13 @@
         <v>76750</v>
       </c>
       <c r="D34" s="37">
-        <v>72551</v>
+        <v>75296</v>
       </c>
       <c r="E34" s="37">
-        <v>49897</v>
+        <v>52182</v>
       </c>
       <c r="F34" s="37">
-        <v>22654</v>
+        <v>23114</v>
       </c>
       <c r="G34" s="38">
         <v>311689</v>
@@ -2927,13 +2927,13 @@
         <v>300</v>
       </c>
       <c r="D35" s="37">
-        <v>991</v>
+        <v>1089</v>
       </c>
       <c r="E35" s="37">
-        <v>739</v>
+        <v>809</v>
       </c>
       <c r="F35" s="37">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G35" s="38">
         <v>10031</v>
@@ -2962,13 +2962,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="37">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="E36" s="37">
         <v>737</v>
       </c>
       <c r="F36" s="37">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G36" s="38">
         <v>4718</v>
@@ -2997,13 +2997,13 @@
         <v>500</v>
       </c>
       <c r="D37" s="37">
-        <v>1091</v>
+        <v>1191</v>
       </c>
       <c r="E37" s="37">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="F37" s="37">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="G37" s="38">
         <v>24182</v>
@@ -3032,13 +3032,13 @@
         <v>800</v>
       </c>
       <c r="D38" s="37">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="E38" s="37">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="F38" s="37">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G38" s="38">
         <v>5607</v>
@@ -3067,13 +3067,13 @@
         <v>9200</v>
       </c>
       <c r="D39" s="37">
-        <v>4012</v>
+        <v>4203</v>
       </c>
       <c r="E39" s="37">
-        <v>2766</v>
+        <v>2845</v>
       </c>
       <c r="F39" s="37">
-        <v>1246</v>
+        <v>1358</v>
       </c>
       <c r="G39" s="38">
         <v>33062</v>
@@ -3102,13 +3102,13 @@
         <v>6100</v>
       </c>
       <c r="D40" s="37">
-        <v>4904</v>
+        <v>5340</v>
       </c>
       <c r="E40" s="37">
-        <v>3564</v>
+        <v>3704</v>
       </c>
       <c r="F40" s="37">
-        <v>1340</v>
+        <v>1636</v>
       </c>
       <c r="G40" s="38">
         <v>40876</v>
@@ -3137,13 +3137,13 @@
         <v>1500</v>
       </c>
       <c r="D41" s="37">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="E41" s="37">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F41" s="37">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G41" s="38">
         <v>6094</v>
@@ -3172,13 +3172,13 @@
         <v>4300</v>
       </c>
       <c r="D42" s="37">
-        <v>2732</v>
+        <v>2778</v>
       </c>
       <c r="E42" s="37">
-        <v>2195</v>
+        <v>2217</v>
       </c>
       <c r="F42" s="37">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="G42" s="38">
         <v>8666</v>
@@ -3207,13 +3207,13 @@
         <v>400</v>
       </c>
       <c r="D43" s="37">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="E43" s="37">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="F43" s="37">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G43" s="38">
         <v>2188</v>
@@ -3242,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="37">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E44" s="37">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F44" s="37">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G44" s="38">
         <v>2756</v>
@@ -3277,13 +3277,13 @@
         <v>800</v>
       </c>
       <c r="D45" s="37">
-        <v>962</v>
+        <v>983</v>
       </c>
       <c r="E45" s="37">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="F45" s="37">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G45" s="38">
         <v>6721</v>
@@ -3312,13 +3312,13 @@
         <v>120750</v>
       </c>
       <c r="D46" s="37">
-        <v>141139</v>
+        <v>145703</v>
       </c>
       <c r="E46" s="37">
-        <v>109360</v>
+        <v>111126</v>
       </c>
       <c r="F46" s="37">
-        <v>31779</v>
+        <v>34577</v>
       </c>
       <c r="G46" s="38">
         <v>801716</v>
@@ -3347,13 +3347,13 @@
         <v>500</v>
       </c>
       <c r="D47" s="37">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E47" s="37">
         <v>372</v>
       </c>
       <c r="F47" s="37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G47" s="38">
         <v>2263</v>
@@ -3382,13 +3382,13 @@
         <v>2400</v>
       </c>
       <c r="D48" s="37">
-        <v>2985</v>
+        <v>3049</v>
       </c>
       <c r="E48" s="37">
-        <v>2406</v>
+        <v>2447</v>
       </c>
       <c r="F48" s="37">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="G48" s="38">
         <v>17107</v>
@@ -3417,13 +3417,13 @@
         <v>17500</v>
       </c>
       <c r="D49" s="37">
-        <v>20675</v>
+        <v>21266</v>
       </c>
       <c r="E49" s="37">
-        <v>15913</v>
+        <v>16328</v>
       </c>
       <c r="F49" s="37">
-        <v>4762</v>
+        <v>4938</v>
       </c>
       <c r="G49" s="38">
         <v>125307</v>
@@ -3452,13 +3452,13 @@
         <v>2850</v>
       </c>
       <c r="D50" s="37">
-        <v>2484</v>
+        <v>2699</v>
       </c>
       <c r="E50" s="37">
-        <v>1523</v>
+        <v>1540</v>
       </c>
       <c r="F50" s="37">
-        <v>961</v>
+        <v>1159</v>
       </c>
       <c r="G50" s="38">
         <v>10944</v>
@@ -3487,13 +3487,13 @@
         <v>300</v>
       </c>
       <c r="D51" s="37">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="E51" s="37">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="F51" s="37">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G51" s="38">
         <v>2288</v>
@@ -3522,13 +3522,13 @@
         <v>4100</v>
       </c>
       <c r="D52" s="37">
-        <v>4427</v>
+        <v>4593</v>
       </c>
       <c r="E52" s="37">
-        <v>3161</v>
+        <v>3277</v>
       </c>
       <c r="F52" s="37">
-        <v>1266</v>
+        <v>1316</v>
       </c>
       <c r="G52" s="38">
         <v>32675</v>
@@ -3557,13 +3557,13 @@
         <v>7075</v>
       </c>
       <c r="D53" s="37">
-        <v>5804</v>
+        <v>6307</v>
       </c>
       <c r="E53" s="37">
-        <v>4414</v>
+        <v>4511</v>
       </c>
       <c r="F53" s="37">
-        <v>1390</v>
+        <v>1796</v>
       </c>
       <c r="G53" s="38">
         <v>60428</v>
@@ -3592,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="37">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E54" s="37">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F54" s="37">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G54" s="38">
         <v>1123</v>
@@ -3627,13 +3627,13 @@
         <v>2150</v>
       </c>
       <c r="D55" s="37">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="E55" s="37">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F55" s="37">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G55" s="38">
         <v>3554</v>
@@ -3662,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="37">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="E56" s="37">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="F56" s="37">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G56" s="38">
         <v>2694</v>
@@ -3697,13 +3697,13 @@
         <v>2350</v>
       </c>
       <c r="D57" s="37">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="E57" s="37">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F57" s="37">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G57" s="38">
         <v>4421</v>
@@ -3732,13 +3732,13 @@
         <v>400</v>
       </c>
       <c r="D58" s="37">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E58" s="37">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F58" s="37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58" s="38">
         <v>1746</v>
@@ -3767,13 +3767,13 @@
         <v>4800</v>
       </c>
       <c r="D59" s="37">
-        <v>1671</v>
+        <v>2513</v>
       </c>
       <c r="E59" s="37">
-        <v>1484</v>
+        <v>1771</v>
       </c>
       <c r="F59" s="37">
-        <v>187</v>
+        <v>742</v>
       </c>
       <c r="G59" s="38">
         <v>5217</v>
@@ -3802,13 +3802,13 @@
         <v>456375</v>
       </c>
       <c r="D60" s="37">
-        <v>316689</v>
+        <v>329680</v>
       </c>
       <c r="E60" s="37">
-        <v>234351</v>
+        <v>239648</v>
       </c>
       <c r="F60" s="37">
-        <v>82338</v>
+        <v>90032</v>
       </c>
       <c r="G60" s="38">
         <v>2028105</v>
@@ -3837,13 +3837,13 @@
         <v>700</v>
       </c>
       <c r="D61" s="37">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="E61" s="37">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F61" s="37">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G61" s="38">
         <v>9789</v>
@@ -3872,13 +3872,13 @@
         <v>1900</v>
       </c>
       <c r="D62" s="37">
-        <v>2362</v>
+        <v>2383</v>
       </c>
       <c r="E62" s="37">
-        <v>1656</v>
+        <v>1667</v>
       </c>
       <c r="F62" s="37">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="G62" s="38">
         <v>13439</v>
@@ -3907,13 +3907,13 @@
         <v>200</v>
       </c>
       <c r="D63" s="37">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="E63" s="37">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="F63" s="37">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G63" s="38">
         <v>4222</v>
@@ -3942,13 +3942,13 @@
         <v>104750</v>
       </c>
       <c r="D64" s="37">
-        <v>72494</v>
+        <v>83577</v>
       </c>
       <c r="E64" s="37">
-        <v>50955</v>
+        <v>60097</v>
       </c>
       <c r="F64" s="37">
-        <v>21539</v>
+        <v>23480</v>
       </c>
       <c r="G64" s="38">
         <v>697330</v>
@@ -3977,13 +3977,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="37">
-        <v>1714</v>
+        <v>1747</v>
       </c>
       <c r="E65" s="37">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="F65" s="37">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="G65" s="38">
         <v>16110</v>
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="37">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E66" s="37">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F66" s="37">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G66" s="38">
         <v>1858</v>
@@ -4047,13 +4047,13 @@
         <v>5975</v>
       </c>
       <c r="D67" s="37">
-        <v>2956</v>
+        <v>2974</v>
       </c>
       <c r="E67" s="37">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="F67" s="37">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="G67" s="38">
         <v>7539</v>
@@ -4082,13 +4082,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="37">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="E68" s="37">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F68" s="37">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G68" s="38">
         <v>2716</v>
@@ -4117,13 +4117,13 @@
         <v>700</v>
       </c>
       <c r="D69" s="37">
-        <v>2096</v>
+        <v>2141</v>
       </c>
       <c r="E69" s="37">
-        <v>1458</v>
+        <v>1483</v>
       </c>
       <c r="F69" s="37">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="G69" s="38">
         <v>8600</v>
@@ -4152,13 +4152,13 @@
         <v>1100</v>
       </c>
       <c r="D70" s="37">
-        <v>1809</v>
+        <v>1847</v>
       </c>
       <c r="E70" s="37">
-        <v>1231</v>
+        <v>1239</v>
       </c>
       <c r="F70" s="37">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="G70" s="38">
         <v>14970</v>
@@ -4187,13 +4187,13 @@
         <v>33300</v>
       </c>
       <c r="D71" s="37">
-        <v>22731</v>
+        <v>25045</v>
       </c>
       <c r="E71" s="37">
-        <v>17766</v>
+        <v>19750</v>
       </c>
       <c r="F71" s="37">
-        <v>4965</v>
+        <v>5295</v>
       </c>
       <c r="G71" s="38">
         <v>120896</v>
@@ -4222,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="37">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E72" s="37">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F72" s="37">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G72" s="38">
         <v>1555</v>
@@ -4254,16 +4254,16 @@
         <v>271</v>
       </c>
       <c r="C73" s="37">
-        <v>161575</v>
+        <v>162575</v>
       </c>
       <c r="D73" s="37">
-        <v>151513</v>
+        <v>155124</v>
       </c>
       <c r="E73" s="37">
-        <v>106277</v>
+        <v>107126</v>
       </c>
       <c r="F73" s="37">
-        <v>45236</v>
+        <v>47998</v>
       </c>
       <c r="G73" s="38">
         <v>640180</v>
@@ -4292,13 +4292,13 @@
         <v>14300</v>
       </c>
       <c r="D74" s="37">
-        <v>23184</v>
+        <v>23528</v>
       </c>
       <c r="E74" s="37">
-        <v>17782</v>
+        <v>17944</v>
       </c>
       <c r="F74" s="37">
-        <v>5402</v>
+        <v>5584</v>
       </c>
       <c r="G74" s="38">
         <v>141665</v>
@@ -4327,13 +4327,13 @@
         <v>2400</v>
       </c>
       <c r="D75" s="37">
-        <v>3992</v>
+        <v>4108</v>
       </c>
       <c r="E75" s="37">
-        <v>3000</v>
+        <v>3049</v>
       </c>
       <c r="F75" s="37">
-        <v>992</v>
+        <v>1059</v>
       </c>
       <c r="G75" s="38">
         <v>34875</v>
@@ -4362,13 +4362,13 @@
         <v>5575</v>
       </c>
       <c r="D76" s="37">
-        <v>2012</v>
+        <v>2066</v>
       </c>
       <c r="E76" s="37">
-        <v>1729</v>
+        <v>1753</v>
       </c>
       <c r="F76" s="37">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="G76" s="38">
         <v>14049</v>
@@ -4397,13 +4397,13 @@
         <v>8375</v>
       </c>
       <c r="D77" s="37">
-        <v>4647</v>
+        <v>4724</v>
       </c>
       <c r="E77" s="37">
-        <v>3251</v>
+        <v>3290</v>
       </c>
       <c r="F77" s="37">
-        <v>1396</v>
+        <v>1434</v>
       </c>
       <c r="G77" s="38">
         <v>28874</v>
@@ -4432,13 +4432,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="37">
-        <v>2847</v>
+        <v>2918</v>
       </c>
       <c r="E78" s="37">
-        <v>2283</v>
+        <v>2312</v>
       </c>
       <c r="F78" s="37">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="G78" s="38">
         <v>20879</v>
@@ -4467,13 +4467,13 @@
         <v>600</v>
       </c>
       <c r="D79" s="37">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E79" s="37">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F79" s="37">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G79" s="38">
         <v>3088</v>
@@ -4502,13 +4502,13 @@
         <v>600</v>
       </c>
       <c r="D80" s="37">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="E80" s="37">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="F80" s="37">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G80" s="38">
         <v>4371</v>
@@ -4537,13 +4537,13 @@
         <v>400</v>
       </c>
       <c r="D81" s="37">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E81" s="37">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F81" s="37">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G81" s="38">
         <v>962</v>
@@ -4572,13 +4572,13 @@
         <v>97850</v>
       </c>
       <c r="D82" s="37">
-        <v>123062</v>
+        <v>127996</v>
       </c>
       <c r="E82" s="37">
-        <v>89086</v>
+        <v>91761</v>
       </c>
       <c r="F82" s="37">
-        <v>33976</v>
+        <v>36235</v>
       </c>
       <c r="G82" s="38">
         <v>616413</v>
@@ -4607,13 +4607,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="37">
-        <v>947</v>
+        <v>1221</v>
       </c>
       <c r="E83" s="37">
-        <v>648</v>
+        <v>875</v>
       </c>
       <c r="F83" s="37">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G83" s="38">
         <v>8554</v>
@@ -4642,13 +4642,13 @@
         <v>1200</v>
       </c>
       <c r="D84" s="37">
-        <v>1282</v>
+        <v>1317</v>
       </c>
       <c r="E84" s="37">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="F84" s="37">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="G84" s="38">
         <v>15808</v>
@@ -4677,13 +4677,13 @@
         <v>3475</v>
       </c>
       <c r="D85" s="37">
-        <v>2793</v>
+        <v>2803</v>
       </c>
       <c r="E85" s="37">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="F85" s="37">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="G85" s="38">
         <v>16121</v>
@@ -4712,13 +4712,13 @@
         <v>1400</v>
       </c>
       <c r="D86" s="37">
-        <v>1473</v>
+        <v>1498</v>
       </c>
       <c r="E86" s="37">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="F86" s="37">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G86" s="38">
         <v>14548</v>
@@ -4747,13 +4747,13 @@
         <v>56950</v>
       </c>
       <c r="D87" s="37">
-        <v>59476</v>
+        <v>61640</v>
       </c>
       <c r="E87" s="37">
-        <v>40978</v>
+        <v>41802</v>
       </c>
       <c r="F87" s="37">
-        <v>18498</v>
+        <v>19838</v>
       </c>
       <c r="G87" s="38">
         <v>269280</v>
@@ -4782,13 +4782,13 @@
         <v>400</v>
       </c>
       <c r="D88" s="37">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E88" s="37">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F88" s="37">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G88" s="38">
         <v>5325</v>
@@ -4817,13 +4817,13 @@
         <v>6700</v>
       </c>
       <c r="D89" s="37">
-        <v>5219</v>
+        <v>5296</v>
       </c>
       <c r="E89" s="37">
-        <v>4036</v>
+        <v>4081</v>
       </c>
       <c r="F89" s="37">
-        <v>1183</v>
+        <v>1215</v>
       </c>
       <c r="G89" s="38">
         <v>22307</v>
@@ -4887,13 +4887,13 @@
         <v>200</v>
       </c>
       <c r="D91" s="37">
-        <v>1203</v>
+        <v>1314</v>
       </c>
       <c r="E91" s="37">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="F91" s="37">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="G91" s="38">
         <v>6281</v>
@@ -4922,13 +4922,13 @@
         <v>1700</v>
       </c>
       <c r="D92" s="37">
-        <v>2460</v>
+        <v>2536</v>
       </c>
       <c r="E92" s="37">
-        <v>1682</v>
+        <v>1733</v>
       </c>
       <c r="F92" s="37">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="G92" s="38">
         <v>15937</v>
@@ -4957,13 +4957,13 @@
         <v>1400</v>
       </c>
       <c r="D93" s="37">
-        <v>2584</v>
+        <v>2601</v>
       </c>
       <c r="E93" s="37">
-        <v>1731</v>
+        <v>1745</v>
       </c>
       <c r="F93" s="37">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G93" s="38">
         <v>16924</v>
@@ -4992,13 +4992,13 @@
         <v>24100</v>
       </c>
       <c r="D94" s="37">
-        <v>15548</v>
+        <v>15705</v>
       </c>
       <c r="E94" s="37">
-        <v>10769</v>
+        <v>10886</v>
       </c>
       <c r="F94" s="37">
-        <v>4779</v>
+        <v>4819</v>
       </c>
       <c r="G94" s="38">
         <v>107521</v>
@@ -5027,13 +5027,13 @@
         <v>23800</v>
       </c>
       <c r="D95" s="37">
-        <v>13830</v>
+        <v>14522</v>
       </c>
       <c r="E95" s="37">
-        <v>10388</v>
+        <v>10544</v>
       </c>
       <c r="F95" s="37">
-        <v>3442</v>
+        <v>3978</v>
       </c>
       <c r="G95" s="38">
         <v>95544</v>
@@ -5062,13 +5062,13 @@
         <v>1400</v>
       </c>
       <c r="D96" s="37">
-        <v>2213</v>
+        <v>2308</v>
       </c>
       <c r="E96" s="37">
-        <v>1661</v>
+        <v>1697</v>
       </c>
       <c r="F96" s="37">
-        <v>552</v>
+        <v>611</v>
       </c>
       <c r="G96" s="38">
         <v>23245</v>
@@ -5097,13 +5097,13 @@
         <v>16625</v>
       </c>
       <c r="D97" s="37">
-        <v>16495</v>
+        <v>16827</v>
       </c>
       <c r="E97" s="37">
-        <v>12170</v>
+        <v>12361</v>
       </c>
       <c r="F97" s="37">
-        <v>4325</v>
+        <v>4466</v>
       </c>
       <c r="G97" s="38">
         <v>130517</v>
@@ -5132,13 +5132,13 @@
         <v>3300</v>
       </c>
       <c r="D98" s="37">
-        <v>4319</v>
+        <v>4353</v>
       </c>
       <c r="E98" s="37">
-        <v>2930</v>
+        <v>2954</v>
       </c>
       <c r="F98" s="37">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="G98" s="38">
         <v>25476</v>
@@ -5167,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="37">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E99" s="37">
         <v>567</v>
       </c>
       <c r="F99" s="37">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G99" s="38">
         <v>2406</v>
@@ -5202,13 +5202,13 @@
         <v>1800</v>
       </c>
       <c r="D100" s="37">
-        <v>1934</v>
+        <v>1723</v>
       </c>
       <c r="E100" s="37">
-        <v>1364</v>
+        <v>1150</v>
       </c>
       <c r="F100" s="37">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G100" s="38">
         <v>6832</v>
@@ -5237,13 +5237,13 @@
         <v>700</v>
       </c>
       <c r="D101" s="37">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E101" s="37">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F101" s="37">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G101" s="38">
         <v>3987</v>
@@ -5272,13 +5272,13 @@
         <v>1000</v>
       </c>
       <c r="D102" s="37">
-        <v>1200</v>
+        <v>1264</v>
       </c>
       <c r="E102" s="37">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="F102" s="37">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="G102" s="38">
         <v>3190</v>
@@ -5307,13 +5307,13 @@
         <v>5400</v>
       </c>
       <c r="D103" s="37">
-        <v>6465</v>
+        <v>7009</v>
       </c>
       <c r="E103" s="37">
-        <v>4923</v>
+        <v>5300</v>
       </c>
       <c r="F103" s="37">
-        <v>1542</v>
+        <v>1709</v>
       </c>
       <c r="G103" s="38">
         <v>45112</v>
@@ -5339,16 +5339,16 @@
         <v>14</v>
       </c>
       <c r="C104" s="37">
-        <v>759025</v>
+        <v>764875</v>
       </c>
       <c r="D104" s="37">
-        <v>575475</v>
+        <v>588278</v>
       </c>
       <c r="E104" s="37">
-        <v>403820</v>
+        <v>411165</v>
       </c>
       <c r="F104" s="37">
-        <v>171655</v>
+        <v>177113</v>
       </c>
       <c r="G104" s="38">
         <v>3601939</v>
@@ -5377,13 +5377,13 @@
         <v>4200</v>
       </c>
       <c r="D105" s="37">
-        <v>4594</v>
+        <v>4784</v>
       </c>
       <c r="E105" s="37">
-        <v>3387</v>
+        <v>3481</v>
       </c>
       <c r="F105" s="37">
-        <v>1207</v>
+        <v>1303</v>
       </c>
       <c r="G105" s="38">
         <v>51900</v>
@@ -5412,13 +5412,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="37">
-        <v>764</v>
+        <v>1298</v>
       </c>
       <c r="E106" s="37">
-        <v>651</v>
+        <v>883</v>
       </c>
       <c r="F106" s="37">
-        <v>113</v>
+        <v>415</v>
       </c>
       <c r="G106" s="38">
         <v>4561</v>
@@ -5447,13 +5447,13 @@
         <v>600</v>
       </c>
       <c r="D107" s="37">
-        <v>911</v>
+        <v>1021</v>
       </c>
       <c r="E107" s="37">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F107" s="37">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="G107" s="38">
         <v>4831</v>
@@ -5482,13 +5482,13 @@
         <v>28550</v>
       </c>
       <c r="D108" s="37">
-        <v>26815</v>
+        <v>27546</v>
       </c>
       <c r="E108" s="37">
-        <v>20149</v>
+        <v>20525</v>
       </c>
       <c r="F108" s="37">
-        <v>6666</v>
+        <v>7021</v>
       </c>
       <c r="G108" s="38">
         <v>183380</v>
@@ -5517,10 +5517,10 @@
         <v>1300</v>
       </c>
       <c r="D109" s="37">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="E109" s="37">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F109" s="37">
         <v>368</v>
@@ -5552,13 +5552,13 @@
         <v>5000</v>
       </c>
       <c r="D110" s="37">
-        <v>6631</v>
+        <v>7483</v>
       </c>
       <c r="E110" s="37">
-        <v>4962</v>
+        <v>5416</v>
       </c>
       <c r="F110" s="37">
-        <v>1669</v>
+        <v>2067</v>
       </c>
       <c r="G110" s="38">
         <v>67238</v>
@@ -5587,13 +5587,13 @@
         <v>160975</v>
       </c>
       <c r="D111" s="37">
-        <v>114286</v>
+        <v>117223</v>
       </c>
       <c r="E111" s="37">
-        <v>80161</v>
+        <v>81767</v>
       </c>
       <c r="F111" s="37">
-        <v>34125</v>
+        <v>35456</v>
       </c>
       <c r="G111" s="38">
         <v>620824</v>
@@ -5622,13 +5622,13 @@
         <v>1900</v>
       </c>
       <c r="D112" s="37">
-        <v>4059</v>
+        <v>4183</v>
       </c>
       <c r="E112" s="37">
-        <v>2826</v>
+        <v>2878</v>
       </c>
       <c r="F112" s="37">
-        <v>1233</v>
+        <v>1305</v>
       </c>
       <c r="G112" s="38">
         <v>29198</v>
@@ -5657,13 +5657,13 @@
         <v>1200</v>
       </c>
       <c r="D113" s="37">
-        <v>3207</v>
+        <v>3236</v>
       </c>
       <c r="E113" s="37">
-        <v>2483</v>
+        <v>2499</v>
       </c>
       <c r="F113" s="37">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="G113" s="38">
         <v>17799</v>
@@ -5692,13 +5692,13 @@
         <v>4500</v>
       </c>
       <c r="D114" s="37">
-        <v>6865</v>
+        <v>7209</v>
       </c>
       <c r="E114" s="37">
-        <v>5554</v>
+        <v>5773</v>
       </c>
       <c r="F114" s="37">
-        <v>1311</v>
+        <v>1436</v>
       </c>
       <c r="G114" s="38">
         <v>50193</v>
@@ -5727,13 +5727,13 @@
         <v>3100</v>
       </c>
       <c r="D115" s="37">
-        <v>2292</v>
+        <v>3304</v>
       </c>
       <c r="E115" s="37">
-        <v>1696</v>
+        <v>2482</v>
       </c>
       <c r="F115" s="37">
-        <v>596</v>
+        <v>822</v>
       </c>
       <c r="G115" s="38">
         <v>29175</v>
@@ -5762,13 +5762,13 @@
         <v>2000</v>
       </c>
       <c r="D116" s="37">
-        <v>2220</v>
+        <v>2256</v>
       </c>
       <c r="E116" s="37">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="F116" s="37">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="G116" s="38">
         <v>18929</v>
@@ -5797,13 +5797,13 @@
         <v>3100</v>
       </c>
       <c r="D117" s="37">
-        <v>2724</v>
+        <v>2957</v>
       </c>
       <c r="E117" s="37">
-        <v>1773</v>
+        <v>1898</v>
       </c>
       <c r="F117" s="37">
-        <v>951</v>
+        <v>1059</v>
       </c>
       <c r="G117" s="38">
         <v>29544</v>
@@ -5832,13 +5832,13 @@
         <v>300</v>
       </c>
       <c r="D118" s="37">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="E118" s="37">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="F118" s="37">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G118" s="38">
         <v>3979</v>
@@ -5867,13 +5867,13 @@
         <v>8150</v>
       </c>
       <c r="D119" s="37">
-        <v>9399</v>
+        <v>9834</v>
       </c>
       <c r="E119" s="37">
-        <v>6322</v>
+        <v>6374</v>
       </c>
       <c r="F119" s="37">
-        <v>3077</v>
+        <v>3460</v>
       </c>
       <c r="G119" s="38">
         <v>77878</v>
@@ -5902,13 +5902,13 @@
         <v>1000</v>
       </c>
       <c r="D120" s="37">
-        <v>2345</v>
+        <v>2442</v>
       </c>
       <c r="E120" s="37">
-        <v>1693</v>
+        <v>1770</v>
       </c>
       <c r="F120" s="37">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="G120" s="38">
         <v>16258</v>
@@ -5937,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="37">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E121" s="37">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F121" s="37">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G121" s="38">
         <v>1234</v>
@@ -5972,13 +5972,13 @@
         <v>1100</v>
       </c>
       <c r="D122" s="37">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="E122" s="37">
         <v>859</v>
       </c>
       <c r="F122" s="37">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G122" s="38">
         <v>7230</v>
@@ -6007,13 +6007,13 @@
         <v>3750</v>
       </c>
       <c r="D123" s="37">
-        <v>2575</v>
+        <v>2637</v>
       </c>
       <c r="E123" s="37">
-        <v>1972</v>
+        <v>2020</v>
       </c>
       <c r="F123" s="37">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="G123" s="38">
         <v>11425</v>
@@ -6042,13 +6042,13 @@
         <v>7200</v>
       </c>
       <c r="D124" s="37">
-        <v>4776</v>
+        <v>4883</v>
       </c>
       <c r="E124" s="37">
-        <v>4256</v>
+        <v>4310</v>
       </c>
       <c r="F124" s="37">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="G124" s="38">
         <v>28056</v>
@@ -6077,13 +6077,13 @@
         <v>200</v>
       </c>
       <c r="D125" s="37">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E125" s="37">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F125" s="37">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G125" s="38">
         <v>2180</v>
@@ -6112,13 +6112,13 @@
         <v>41200</v>
       </c>
       <c r="D126" s="37">
-        <v>21614</v>
+        <v>22678</v>
       </c>
       <c r="E126" s="37">
-        <v>16911</v>
+        <v>17770</v>
       </c>
       <c r="F126" s="37">
-        <v>4703</v>
+        <v>4908</v>
       </c>
       <c r="G126" s="38">
         <v>197382</v>
@@ -6147,13 +6147,13 @@
         <v>300</v>
       </c>
       <c r="D127" s="37">
-        <v>1122</v>
+        <v>1332</v>
       </c>
       <c r="E127" s="37">
-        <v>709</v>
+        <v>908</v>
       </c>
       <c r="F127" s="37">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="G127" s="38">
         <v>3791</v>
@@ -6182,13 +6182,13 @@
         <v>6675</v>
       </c>
       <c r="D128" s="37">
-        <v>8486</v>
+        <v>8694</v>
       </c>
       <c r="E128" s="37">
-        <v>6163</v>
+        <v>6313</v>
       </c>
       <c r="F128" s="37">
-        <v>2323</v>
+        <v>2381</v>
       </c>
       <c r="G128" s="38">
         <v>30579</v>
@@ -6217,13 +6217,13 @@
         <v>7400</v>
       </c>
       <c r="D129" s="37">
-        <v>15143</v>
+        <v>15647</v>
       </c>
       <c r="E129" s="37">
-        <v>10411</v>
+        <v>10665</v>
       </c>
       <c r="F129" s="37">
-        <v>4732</v>
+        <v>4982</v>
       </c>
       <c r="G129" s="38">
         <v>135345</v>
@@ -6252,13 +6252,13 @@
         <v>500</v>
       </c>
       <c r="D130" s="37">
-        <v>1622</v>
+        <v>1659</v>
       </c>
       <c r="E130" s="37">
-        <v>1227</v>
+        <v>1240</v>
       </c>
       <c r="F130" s="37">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="G130" s="38">
         <v>17011</v>
@@ -6287,13 +6287,13 @@
         <v>2000</v>
       </c>
       <c r="D131" s="37">
-        <v>1801</v>
+        <v>1818</v>
       </c>
       <c r="E131" s="37">
-        <v>1355</v>
+        <v>1366</v>
       </c>
       <c r="F131" s="37">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G131" s="38">
         <v>12669</v>
@@ -6322,13 +6322,13 @@
         <v>5550</v>
       </c>
       <c r="D132" s="37">
-        <v>13184</v>
+        <v>13708</v>
       </c>
       <c r="E132" s="37">
-        <v>9039</v>
+        <v>9357</v>
       </c>
       <c r="F132" s="37">
-        <v>4145</v>
+        <v>4351</v>
       </c>
       <c r="G132" s="38">
         <v>102341</v>
@@ -6357,13 +6357,13 @@
         <v>2900</v>
       </c>
       <c r="D133" s="37">
-        <v>5993</v>
+        <v>6249</v>
       </c>
       <c r="E133" s="37">
-        <v>4330</v>
+        <v>4494</v>
       </c>
       <c r="F133" s="37">
-        <v>1663</v>
+        <v>1755</v>
       </c>
       <c r="G133" s="38">
         <v>37890</v>
@@ -6427,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="D135" s="37">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E135" s="37">
         <v>131</v>
       </c>
       <c r="F135" s="37">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G135" s="38">
         <v>615</v>
@@ -6462,13 +6462,13 @@
         <v>5300</v>
       </c>
       <c r="D136" s="37">
-        <v>5904</v>
+        <v>5995</v>
       </c>
       <c r="E136" s="37">
-        <v>4497</v>
+        <v>4570</v>
       </c>
       <c r="F136" s="37">
-        <v>1407</v>
+        <v>1425</v>
       </c>
       <c r="G136" s="38">
         <v>43793</v>
@@ -6497,13 +6497,13 @@
         <v>700</v>
       </c>
       <c r="D137" s="37">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E137" s="37">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F137" s="37">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G137" s="38">
         <v>3651</v>
@@ -6535,10 +6535,10 @@
         <v>35</v>
       </c>
       <c r="E138" s="37">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F138" s="37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G138" s="38">
         <v>205</v>
@@ -6602,13 +6602,13 @@
         <v>10175</v>
       </c>
       <c r="D140" s="37">
-        <v>7797</v>
+        <v>7899</v>
       </c>
       <c r="E140" s="37">
-        <v>6869</v>
+        <v>6919</v>
       </c>
       <c r="F140" s="37">
-        <v>928</v>
+        <v>980</v>
       </c>
       <c r="G140" s="38">
         <v>24188</v>
@@ -6637,13 +6637,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="37">
-        <v>853</v>
+        <v>953</v>
       </c>
       <c r="E141" s="37">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F141" s="37">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="G141" s="38">
         <v>2808</v>
@@ -6672,10 +6672,10 @@
         <v>4400</v>
       </c>
       <c r="D142" s="37">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="E142" s="37">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="F142" s="37">
         <v>797</v>
@@ -6707,13 +6707,13 @@
         <v>6500</v>
       </c>
       <c r="D143" s="37">
-        <v>6767</v>
+        <v>6846</v>
       </c>
       <c r="E143" s="37">
-        <v>5240</v>
+        <v>5299</v>
       </c>
       <c r="F143" s="37">
-        <v>1527</v>
+        <v>1547</v>
       </c>
       <c r="G143" s="38">
         <v>39402</v>
@@ -6742,13 +6742,13 @@
         <v>600</v>
       </c>
       <c r="D144" s="37">
-        <v>2427</v>
+        <v>2452</v>
       </c>
       <c r="E144" s="37">
-        <v>1645</v>
+        <v>1658</v>
       </c>
       <c r="F144" s="37">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="G144" s="38">
         <v>9740</v>
@@ -6777,13 +6777,13 @@
         <v>800</v>
       </c>
       <c r="D145" s="37">
-        <v>1704</v>
+        <v>1758</v>
       </c>
       <c r="E145" s="37">
-        <v>1348</v>
+        <v>1368</v>
       </c>
       <c r="F145" s="37">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="G145" s="38">
         <v>17366</v>
@@ -6812,13 +6812,13 @@
         <v>2300</v>
       </c>
       <c r="D146" s="37">
-        <v>2870</v>
+        <v>2933</v>
       </c>
       <c r="E146" s="37">
-        <v>1795</v>
+        <v>1828</v>
       </c>
       <c r="F146" s="37">
-        <v>1075</v>
+        <v>1105</v>
       </c>
       <c r="G146" s="38">
         <v>16004</v>
@@ -6847,13 +6847,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="37">
-        <v>1443</v>
+        <v>1474</v>
       </c>
       <c r="E147" s="37">
-        <v>1052</v>
+        <v>1061</v>
       </c>
       <c r="F147" s="37">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="G147" s="38">
         <v>13993</v>
@@ -6882,13 +6882,13 @@
         <v>900</v>
       </c>
       <c r="D148" s="37">
-        <v>1091</v>
+        <v>1117</v>
       </c>
       <c r="E148" s="37">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F148" s="37">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="G148" s="38">
         <v>13946</v>
@@ -6917,13 +6917,13 @@
         <v>9175</v>
       </c>
       <c r="D149" s="37">
-        <v>5579</v>
+        <v>5761</v>
       </c>
       <c r="E149" s="37">
-        <v>3777</v>
+        <v>3852</v>
       </c>
       <c r="F149" s="37">
-        <v>1802</v>
+        <v>1909</v>
       </c>
       <c r="G149" s="38">
         <v>66868</v>
@@ -6952,13 +6952,13 @@
         <v>1700</v>
       </c>
       <c r="D150" s="37">
-        <v>1846</v>
+        <v>1884</v>
       </c>
       <c r="E150" s="37">
-        <v>1263</v>
+        <v>1282</v>
       </c>
       <c r="F150" s="37">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="G150" s="38">
         <v>18871</v>
@@ -6987,13 +6987,13 @@
         <v>200</v>
       </c>
       <c r="D151" s="37">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="E151" s="37">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F151" s="37">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G151" s="38">
         <v>2520</v>
@@ -7022,13 +7022,13 @@
         <v>400</v>
       </c>
       <c r="D152" s="37">
-        <v>1582</v>
+        <v>1596</v>
       </c>
       <c r="E152" s="37">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="F152" s="37">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G152" s="38">
         <v>10055</v>
@@ -7057,13 +7057,13 @@
         <v>1200</v>
       </c>
       <c r="D153" s="37">
-        <v>2602</v>
+        <v>2699</v>
       </c>
       <c r="E153" s="37">
-        <v>2124</v>
+        <v>2214</v>
       </c>
       <c r="F153" s="37">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="G153" s="38">
         <v>18908</v>
@@ -7092,10 +7092,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E154" s="37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F154" s="37">
         <v>1</v>
@@ -7127,13 +7127,13 @@
         <v>95200</v>
       </c>
       <c r="D155" s="37">
-        <v>70598</v>
+        <v>71895</v>
       </c>
       <c r="E155" s="37">
-        <v>49971</v>
+        <v>50696</v>
       </c>
       <c r="F155" s="37">
-        <v>20627</v>
+        <v>21199</v>
       </c>
       <c r="G155" s="38">
         <v>244992</v>
@@ -7162,13 +7162,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="37">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="E156" s="37">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="F156" s="37">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G156" s="38">
         <v>4496</v>
@@ -7197,13 +7197,13 @@
         <v>900</v>
       </c>
       <c r="D157" s="37">
-        <v>855</v>
+        <v>882</v>
       </c>
       <c r="E157" s="37">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="F157" s="37">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="G157" s="38">
         <v>11595</v>
@@ -7232,13 +7232,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="37">
-        <v>570</v>
+        <v>631</v>
       </c>
       <c r="E158" s="37">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="F158" s="37">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="G158" s="38">
         <v>8277</v>
@@ -7267,13 +7267,13 @@
         <v>800</v>
       </c>
       <c r="D159" s="37">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="E159" s="37">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="F159" s="37">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G159" s="38">
         <v>4136</v>
@@ -7302,13 +7302,13 @@
         <v>400</v>
       </c>
       <c r="D160" s="37">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="E160" s="37">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F160" s="37">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G160" s="38">
         <v>3521</v>
@@ -7337,13 +7337,13 @@
         <v>2900</v>
       </c>
       <c r="D161" s="37">
-        <v>2828</v>
+        <v>2866</v>
       </c>
       <c r="E161" s="37">
-        <v>1930</v>
+        <v>1958</v>
       </c>
       <c r="F161" s="37">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="G161" s="38">
         <v>28247</v>
@@ -7372,13 +7372,13 @@
         <v>9100</v>
       </c>
       <c r="D162" s="37">
-        <v>5147</v>
+        <v>5205</v>
       </c>
       <c r="E162" s="37">
-        <v>4110</v>
+        <v>4157</v>
       </c>
       <c r="F162" s="37">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="G162" s="38">
         <v>42606</v>
@@ -7407,13 +7407,13 @@
         <v>1200</v>
       </c>
       <c r="D163" s="37">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="E163" s="37">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="F163" s="37">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G163" s="38">
         <v>6435</v>
@@ -7442,13 +7442,13 @@
         <v>34950</v>
       </c>
       <c r="D164" s="37">
-        <v>30547</v>
+        <v>31841</v>
       </c>
       <c r="E164" s="37">
-        <v>23017</v>
+        <v>23572</v>
       </c>
       <c r="F164" s="37">
-        <v>7530</v>
+        <v>8269</v>
       </c>
       <c r="G164" s="38">
         <v>200781</v>
@@ -7477,10 +7477,10 @@
         <v>100</v>
       </c>
       <c r="D165" s="37">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E165" s="37">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F165" s="37">
         <v>8</v>
@@ -7512,13 +7512,13 @@
         <v>2600</v>
       </c>
       <c r="D166" s="37">
-        <v>5938</v>
+        <v>6145</v>
       </c>
       <c r="E166" s="37">
-        <v>4315</v>
+        <v>4452</v>
       </c>
       <c r="F166" s="37">
-        <v>1623</v>
+        <v>1693</v>
       </c>
       <c r="G166" s="38">
         <v>41263</v>
@@ -7547,10 +7547,10 @@
         <v>200</v>
       </c>
       <c r="D167" s="37">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E167" s="37">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F167" s="37">
         <v>75</v>
@@ -7582,13 +7582,13 @@
         <v>32275</v>
       </c>
       <c r="D168" s="37">
-        <v>25230</v>
+        <v>26398</v>
       </c>
       <c r="E168" s="37">
-        <v>21241</v>
+        <v>22290</v>
       </c>
       <c r="F168" s="37">
-        <v>3989</v>
+        <v>4108</v>
       </c>
       <c r="G168" s="38">
         <v>131025</v>
@@ -7617,13 +7617,13 @@
         <v>2700</v>
       </c>
       <c r="D169" s="37">
-        <v>3086</v>
+        <v>3131</v>
       </c>
       <c r="E169" s="37">
-        <v>1964</v>
+        <v>1996</v>
       </c>
       <c r="F169" s="37">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="G169" s="38">
         <v>19689</v>
@@ -7652,13 +7652,13 @@
         <v>300</v>
       </c>
       <c r="D170" s="37">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="E170" s="37">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F170" s="37">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G170" s="38">
         <v>4006</v>
@@ -7687,13 +7687,13 @@
         <v>1000</v>
       </c>
       <c r="D171" s="37">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="E171" s="37">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F171" s="37">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G171" s="38">
         <v>6958</v>
@@ -7722,13 +7722,13 @@
         <v>2350</v>
       </c>
       <c r="D172" s="37">
-        <v>3075</v>
+        <v>3115</v>
       </c>
       <c r="E172" s="37">
-        <v>2242</v>
+        <v>2267</v>
       </c>
       <c r="F172" s="37">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="G172" s="38">
         <v>15872</v>
@@ -7757,13 +7757,13 @@
         <v>74300</v>
       </c>
       <c r="D173" s="37">
-        <v>60794</v>
+        <v>63959</v>
       </c>
       <c r="E173" s="37">
-        <v>42887</v>
+        <v>44804</v>
       </c>
       <c r="F173" s="37">
-        <v>17907</v>
+        <v>19155</v>
       </c>
       <c r="G173" s="38">
         <v>467232</v>
@@ -7792,13 +7792,13 @@
         <v>1500</v>
       </c>
       <c r="D174" s="37">
-        <v>4621</v>
+        <v>4967</v>
       </c>
       <c r="E174" s="37">
-        <v>3692</v>
+        <v>3979</v>
       </c>
       <c r="F174" s="37">
-        <v>929</v>
+        <v>988</v>
       </c>
       <c r="G174" s="38">
         <v>14986</v>
@@ -7827,13 +7827,13 @@
         <v>500</v>
       </c>
       <c r="D175" s="37">
-        <v>858</v>
+        <v>918</v>
       </c>
       <c r="E175" s="37">
-        <v>567</v>
+        <v>612</v>
       </c>
       <c r="F175" s="37">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G175" s="38">
         <v>9830</v>
@@ -7862,13 +7862,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="37">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E176" s="37">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F176" s="37">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G176" s="38">
         <v>994</v>
@@ -7897,13 +7897,13 @@
         <v>8700</v>
       </c>
       <c r="D177" s="37">
-        <v>9985</v>
+        <v>10055</v>
       </c>
       <c r="E177" s="37">
-        <v>6340</v>
+        <v>6387</v>
       </c>
       <c r="F177" s="37">
-        <v>3645</v>
+        <v>3668</v>
       </c>
       <c r="G177" s="38">
         <v>51773</v>
@@ -7932,13 +7932,13 @@
         <v>7100</v>
       </c>
       <c r="D178" s="37">
-        <v>7495</v>
+        <v>7577</v>
       </c>
       <c r="E178" s="37">
-        <v>6477</v>
+        <v>6519</v>
       </c>
       <c r="F178" s="37">
-        <v>1018</v>
+        <v>1058</v>
       </c>
       <c r="G178" s="38">
         <v>38360</v>
@@ -7967,13 +7967,13 @@
         <v>900</v>
       </c>
       <c r="D179" s="37">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="E179" s="37">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="F179" s="37">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G179" s="38">
         <v>11298</v>
@@ -8002,13 +8002,13 @@
         <v>2200</v>
       </c>
       <c r="D180" s="37">
-        <v>2371</v>
+        <v>2406</v>
       </c>
       <c r="E180" s="37">
-        <v>1686</v>
+        <v>1701</v>
       </c>
       <c r="F180" s="37">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="G180" s="38">
         <v>11321</v>
@@ -8037,13 +8037,13 @@
         <v>74275</v>
       </c>
       <c r="D181" s="37">
-        <v>43091</v>
+        <v>44977</v>
       </c>
       <c r="E181" s="37">
-        <v>28415</v>
+        <v>28971</v>
       </c>
       <c r="F181" s="37">
-        <v>14676</v>
+        <v>16006</v>
       </c>
       <c r="G181" s="38">
         <v>284366</v>
@@ -8072,10 +8072,10 @@
         <v>1300</v>
       </c>
       <c r="D182" s="37">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E182" s="37">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F182" s="37">
         <v>422</v>
@@ -8107,13 +8107,13 @@
         <v>300</v>
       </c>
       <c r="D183" s="37">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E183" s="37">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F183" s="37">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G183" s="38">
         <v>1728</v>
@@ -8142,13 +8142,13 @@
         <v>1600</v>
       </c>
       <c r="D184" s="37">
-        <v>5710</v>
+        <v>6062</v>
       </c>
       <c r="E184" s="37">
-        <v>4744</v>
+        <v>5032</v>
       </c>
       <c r="F184" s="37">
-        <v>966</v>
+        <v>1030</v>
       </c>
       <c r="G184" s="38">
         <v>65087</v>
@@ -8177,13 +8177,13 @@
         <v>1800</v>
       </c>
       <c r="D185" s="37">
-        <v>2105</v>
+        <v>2153</v>
       </c>
       <c r="E185" s="37">
-        <v>1524</v>
+        <v>1541</v>
       </c>
       <c r="F185" s="37">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="G185" s="38">
         <v>23207</v>
@@ -8212,13 +8212,13 @@
         <v>1600</v>
       </c>
       <c r="D186" s="37">
-        <v>1735</v>
+        <v>1764</v>
       </c>
       <c r="E186" s="37">
-        <v>1256</v>
+        <v>1272</v>
       </c>
       <c r="F186" s="37">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="G186" s="38">
         <v>18462</v>
@@ -8247,13 +8247,13 @@
         <v>15350</v>
       </c>
       <c r="D187" s="37">
-        <v>16533</v>
+        <v>17467</v>
       </c>
       <c r="E187" s="37">
-        <v>11987</v>
+        <v>12435</v>
       </c>
       <c r="F187" s="37">
-        <v>4546</v>
+        <v>5032</v>
       </c>
       <c r="G187" s="38">
         <v>111686</v>
@@ -8282,13 +8282,13 @@
         <v>800</v>
       </c>
       <c r="D188" s="37">
-        <v>1849</v>
+        <v>1859</v>
       </c>
       <c r="E188" s="37">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="F188" s="37">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="G188" s="38">
         <v>7222</v>
@@ -8317,13 +8317,13 @@
         <v>2000</v>
       </c>
       <c r="D189" s="37">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="E189" s="37">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="F189" s="37">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G189" s="38">
         <v>12317</v>
@@ -8352,13 +8352,13 @@
         <v>4300</v>
       </c>
       <c r="D190" s="37">
-        <v>5803</v>
+        <v>6016</v>
       </c>
       <c r="E190" s="37">
-        <v>4452</v>
+        <v>4605</v>
       </c>
       <c r="F190" s="37">
-        <v>1351</v>
+        <v>1411</v>
       </c>
       <c r="G190" s="38">
         <v>42276</v>
@@ -8387,13 +8387,13 @@
         <v>84125</v>
       </c>
       <c r="D191" s="37">
-        <v>26175</v>
+        <v>26480</v>
       </c>
       <c r="E191" s="37">
-        <v>16941</v>
+        <v>17079</v>
       </c>
       <c r="F191" s="37">
-        <v>9234</v>
+        <v>9401</v>
       </c>
       <c r="G191" s="38">
         <v>88673</v>
@@ -8422,13 +8422,13 @@
         <v>800</v>
       </c>
       <c r="D192" s="37">
-        <v>1449</v>
+        <v>1480</v>
       </c>
       <c r="E192" s="37">
-        <v>1236</v>
+        <v>1264</v>
       </c>
       <c r="F192" s="37">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G192" s="38">
         <v>5069</v>
@@ -8457,13 +8457,13 @@
         <v>300</v>
       </c>
       <c r="D193" s="37">
-        <v>851</v>
+        <v>1001</v>
       </c>
       <c r="E193" s="37">
-        <v>620</v>
+        <v>718</v>
       </c>
       <c r="F193" s="37">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="G193" s="38">
         <v>10277</v>
@@ -8492,13 +8492,13 @@
         <v>6100</v>
       </c>
       <c r="D194" s="37">
-        <v>39552</v>
+        <v>40159</v>
       </c>
       <c r="E194" s="37">
-        <v>25015</v>
+        <v>25284</v>
       </c>
       <c r="F194" s="37">
-        <v>14537</v>
+        <v>14875</v>
       </c>
       <c r="G194" s="38">
         <v>108431</v>
@@ -8527,13 +8527,13 @@
         <v>300</v>
       </c>
       <c r="D195" s="37">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E195" s="37">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F195" s="37">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G195" s="38">
         <v>2841</v>
@@ -8562,13 +8562,13 @@
         <v>200</v>
       </c>
       <c r="D196" s="37">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E196" s="37">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F196" s="37">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G196" s="38">
         <v>2943</v>
@@ -8597,13 +8597,13 @@
         <v>800</v>
       </c>
       <c r="D197" s="37">
-        <v>1692</v>
+        <v>1724</v>
       </c>
       <c r="E197" s="37">
-        <v>1277</v>
+        <v>1296</v>
       </c>
       <c r="F197" s="37">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G197" s="38">
         <v>9965</v>
@@ -8632,13 +8632,13 @@
         <v>5775</v>
       </c>
       <c r="D198" s="37">
-        <v>4457</v>
+        <v>4472</v>
       </c>
       <c r="E198" s="37">
-        <v>3108</v>
+        <v>3118</v>
       </c>
       <c r="F198" s="37">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="G198" s="38">
         <v>12781</v>
@@ -8667,13 +8667,13 @@
         <v>700</v>
       </c>
       <c r="D199" s="37">
-        <v>1348</v>
+        <v>1360</v>
       </c>
       <c r="E199" s="37">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="F199" s="37">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G199" s="38">
         <v>5583</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="37">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E200" s="37">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F200" s="37">
         <v>47</v>
@@ -8737,13 +8737,13 @@
         <v>1000</v>
       </c>
       <c r="D201" s="37">
-        <v>1590</v>
+        <v>1688</v>
       </c>
       <c r="E201" s="37">
-        <v>1246</v>
+        <v>1284</v>
       </c>
       <c r="F201" s="37">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="G201" s="38">
         <v>13474</v>
@@ -8772,13 +8772,13 @@
         <v>6775</v>
       </c>
       <c r="D202" s="37">
-        <v>14191</v>
+        <v>14642</v>
       </c>
       <c r="E202" s="37">
-        <v>10490</v>
+        <v>10749</v>
       </c>
       <c r="F202" s="37">
-        <v>3701</v>
+        <v>3893</v>
       </c>
       <c r="G202" s="38">
         <v>80325</v>
@@ -8807,13 +8807,13 @@
         <v>1500</v>
       </c>
       <c r="D203" s="37">
-        <v>1750</v>
+        <v>1772</v>
       </c>
       <c r="E203" s="37">
-        <v>1138</v>
+        <v>1158</v>
       </c>
       <c r="F203" s="37">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G203" s="38">
         <v>8184</v>
@@ -8842,13 +8842,13 @@
         <v>2000</v>
       </c>
       <c r="D204" s="37">
-        <v>3151</v>
+        <v>3771</v>
       </c>
       <c r="E204" s="37">
-        <v>2307</v>
+        <v>2755</v>
       </c>
       <c r="F204" s="37">
-        <v>844</v>
+        <v>1016</v>
       </c>
       <c r="G204" s="38">
         <v>43777</v>
@@ -8877,10 +8877,10 @@
         <v>1400</v>
       </c>
       <c r="D205" s="37">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="E205" s="37">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="F205" s="37">
         <v>458</v>
@@ -8912,13 +8912,13 @@
         <v>1200</v>
       </c>
       <c r="D206" s="37">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="E206" s="37">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="F206" s="37">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="G206" s="38">
         <v>6811</v>
@@ -8947,13 +8947,13 @@
         <v>1600</v>
       </c>
       <c r="D207" s="37">
-        <v>2301</v>
+        <v>2359</v>
       </c>
       <c r="E207" s="37">
-        <v>1663</v>
+        <v>1699</v>
       </c>
       <c r="F207" s="37">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="G207" s="38">
         <v>23444</v>
@@ -8982,13 +8982,13 @@
         <v>3200</v>
       </c>
       <c r="D208" s="37">
-        <v>7449</v>
+        <v>7759</v>
       </c>
       <c r="E208" s="37">
-        <v>5501</v>
+        <v>5678</v>
       </c>
       <c r="F208" s="37">
-        <v>1948</v>
+        <v>2081</v>
       </c>
       <c r="G208" s="38">
         <v>51116</v>
@@ -9017,13 +9017,13 @@
         <v>300</v>
       </c>
       <c r="D209" s="37">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E209" s="37">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F209" s="37">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G209" s="38">
         <v>5000</v>
@@ -9052,13 +9052,13 @@
         <v>400</v>
       </c>
       <c r="D210" s="37">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E210" s="37">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F210" s="37">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G210" s="38">
         <v>2218</v>
@@ -9087,13 +9087,13 @@
         <v>3925</v>
       </c>
       <c r="D211" s="37">
-        <v>1689</v>
+        <v>1708</v>
       </c>
       <c r="E211" s="37">
-        <v>1223</v>
+        <v>1233</v>
       </c>
       <c r="F211" s="37">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="G211" s="38">
         <v>13000</v>
@@ -9122,13 +9122,13 @@
         <v>300</v>
       </c>
       <c r="D212" s="37">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E212" s="37">
         <v>280</v>
       </c>
       <c r="F212" s="37">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G212" s="38">
         <v>2612</v>
@@ -9157,13 +9157,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="37">
-        <v>1595</v>
+        <v>1635</v>
       </c>
       <c r="E213" s="37">
-        <v>1036</v>
+        <v>1054</v>
       </c>
       <c r="F213" s="37">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="G213" s="38">
         <v>19449</v>
@@ -9192,13 +9192,13 @@
         <v>500</v>
       </c>
       <c r="D214" s="37">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="E214" s="37">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="F214" s="37">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="G214" s="38">
         <v>2294</v>
@@ -9227,13 +9227,13 @@
         <v>63600</v>
       </c>
       <c r="D215" s="37">
-        <v>31448</v>
+        <v>36803</v>
       </c>
       <c r="E215" s="37">
-        <v>23207</v>
+        <v>25394</v>
       </c>
       <c r="F215" s="37">
-        <v>8241</v>
+        <v>11409</v>
       </c>
       <c r="G215" s="38">
         <v>182283</v>
@@ -9262,13 +9262,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="37">
-        <v>1247</v>
+        <v>1256</v>
       </c>
       <c r="E216" s="37">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F216" s="37">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G216" s="38">
         <v>7386</v>
@@ -9297,13 +9297,13 @@
         <v>6400</v>
       </c>
       <c r="D217" s="37">
-        <v>7580</v>
+        <v>7738</v>
       </c>
       <c r="E217" s="37">
-        <v>5652</v>
+        <v>5731</v>
       </c>
       <c r="F217" s="37">
-        <v>1928</v>
+        <v>2007</v>
       </c>
       <c r="G217" s="38">
         <v>45765</v>
@@ -9332,13 +9332,13 @@
         <v>900</v>
       </c>
       <c r="D218" s="37">
-        <v>740</v>
+        <v>784</v>
       </c>
       <c r="E218" s="37">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="F218" s="37">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G218" s="38">
         <v>7542</v>
@@ -9367,13 +9367,13 @@
         <v>100</v>
       </c>
       <c r="D219" s="37">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E219" s="37">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F219" s="37">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G219" s="38">
         <v>975</v>
@@ -9402,13 +9402,13 @@
         <v>500</v>
       </c>
       <c r="D220" s="37">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="E220" s="37">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F220" s="37">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G220" s="38">
         <v>1095</v>
@@ -9437,13 +9437,13 @@
         <v>400</v>
       </c>
       <c r="D221" s="37">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E221" s="37">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F221" s="37">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G221" s="38">
         <v>2992</v>
@@ -9472,13 +9472,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="37">
-        <v>1246</v>
+        <v>1270</v>
       </c>
       <c r="E222" s="37">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="F222" s="37">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G222" s="38">
         <v>5764</v>
@@ -9507,13 +9507,13 @@
         <v>395350</v>
       </c>
       <c r="D223" s="37">
-        <v>231718</v>
+        <v>239972</v>
       </c>
       <c r="E223" s="37">
-        <v>157093</v>
+        <v>160403</v>
       </c>
       <c r="F223" s="37">
-        <v>74625</v>
+        <v>79569</v>
       </c>
       <c r="G223" s="38">
         <v>1617160</v>
@@ -9542,13 +9542,13 @@
         <v>22375</v>
       </c>
       <c r="D224" s="37">
-        <v>23141</v>
+        <v>23540</v>
       </c>
       <c r="E224" s="37">
-        <v>17184</v>
+        <v>17391</v>
       </c>
       <c r="F224" s="37">
-        <v>5957</v>
+        <v>6149</v>
       </c>
       <c r="G224" s="38">
         <v>107257</v>
@@ -9577,13 +9577,13 @@
         <v>0</v>
       </c>
       <c r="D225" s="37">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E225" s="37">
         <v>199</v>
       </c>
       <c r="F225" s="37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G225" s="38">
         <v>639</v>
@@ -9612,10 +9612,10 @@
         <v>3450</v>
       </c>
       <c r="D226" s="37">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="E226" s="37">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="F226" s="37">
         <v>695</v>
@@ -9647,13 +9647,13 @@
         <v>500</v>
       </c>
       <c r="D227" s="37">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E227" s="37">
         <v>359</v>
       </c>
       <c r="F227" s="37">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G227" s="38">
         <v>1247</v>
@@ -9682,13 +9682,13 @@
         <v>4300</v>
       </c>
       <c r="D228" s="37">
-        <v>2390</v>
+        <v>2709</v>
       </c>
       <c r="E228" s="37">
-        <v>1569</v>
+        <v>1827</v>
       </c>
       <c r="F228" s="37">
-        <v>821</v>
+        <v>882</v>
       </c>
       <c r="G228" s="38">
         <v>24323</v>
@@ -9717,13 +9717,13 @@
         <v>24000</v>
       </c>
       <c r="D229" s="37">
-        <v>21575</v>
+        <v>22224</v>
       </c>
       <c r="E229" s="37">
-        <v>14683</v>
+        <v>15090</v>
       </c>
       <c r="F229" s="37">
-        <v>6892</v>
+        <v>7134</v>
       </c>
       <c r="G229" s="38">
         <v>93752</v>
@@ -9752,13 +9752,13 @@
         <v>217400</v>
       </c>
       <c r="D230" s="37">
-        <v>147248</v>
+        <v>150966</v>
       </c>
       <c r="E230" s="37">
-        <v>102975</v>
+        <v>105450</v>
       </c>
       <c r="F230" s="37">
-        <v>44273</v>
+        <v>45516</v>
       </c>
       <c r="G230" s="38">
         <v>1032386</v>
@@ -9787,13 +9787,13 @@
         <v>2750</v>
       </c>
       <c r="D231" s="37">
-        <v>2054</v>
+        <v>2077</v>
       </c>
       <c r="E231" s="37">
-        <v>1513</v>
+        <v>1528</v>
       </c>
       <c r="F231" s="37">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="G231" s="38">
         <v>12104</v>
@@ -9822,13 +9822,13 @@
         <v>2800</v>
       </c>
       <c r="D232" s="37">
-        <v>2775</v>
+        <v>3120</v>
       </c>
       <c r="E232" s="37">
-        <v>2002</v>
+        <v>2232</v>
       </c>
       <c r="F232" s="37">
-        <v>773</v>
+        <v>888</v>
       </c>
       <c r="G232" s="38">
         <v>17963</v>
@@ -9857,13 +9857,13 @@
         <v>1400</v>
       </c>
       <c r="D233" s="37">
-        <v>2783</v>
+        <v>2957</v>
       </c>
       <c r="E233" s="37">
-        <v>2077</v>
+        <v>2146</v>
       </c>
       <c r="F233" s="37">
-        <v>706</v>
+        <v>811</v>
       </c>
       <c r="G233" s="38">
         <v>33011</v>
@@ -9927,13 +9927,13 @@
         <v>7175</v>
       </c>
       <c r="D235" s="37">
-        <v>5795</v>
+        <v>5831</v>
       </c>
       <c r="E235" s="37">
-        <v>4046</v>
+        <v>4075</v>
       </c>
       <c r="F235" s="37">
-        <v>1749</v>
+        <v>1756</v>
       </c>
       <c r="G235" s="38">
         <v>20379</v>
@@ -9962,13 +9962,13 @@
         <v>5150</v>
       </c>
       <c r="D236" s="37">
-        <v>5599</v>
+        <v>5688</v>
       </c>
       <c r="E236" s="37">
-        <v>4396</v>
+        <v>4459</v>
       </c>
       <c r="F236" s="37">
-        <v>1203</v>
+        <v>1229</v>
       </c>
       <c r="G236" s="38">
         <v>36546</v>
@@ -9997,13 +9997,13 @@
         <v>2900</v>
       </c>
       <c r="D237" s="37">
-        <v>4973</v>
+        <v>5397</v>
       </c>
       <c r="E237" s="37">
-        <v>3603</v>
+        <v>3766</v>
       </c>
       <c r="F237" s="37">
-        <v>1370</v>
+        <v>1631</v>
       </c>
       <c r="G237" s="38">
         <v>45216</v>
@@ -10029,16 +10029,16 @@
         <v>275</v>
       </c>
       <c r="C238" s="37">
-        <v>13475</v>
+        <v>14450</v>
       </c>
       <c r="D238" s="37">
-        <v>13946</v>
+        <v>14068</v>
       </c>
       <c r="E238" s="37">
-        <v>10245</v>
+        <v>10317</v>
       </c>
       <c r="F238" s="37">
-        <v>3701</v>
+        <v>3751</v>
       </c>
       <c r="G238" s="38">
         <v>71388</v>
@@ -10067,13 +10067,13 @@
         <v>5600</v>
       </c>
       <c r="D239" s="37">
-        <v>5308</v>
+        <v>5424</v>
       </c>
       <c r="E239" s="37">
-        <v>3851</v>
+        <v>3911</v>
       </c>
       <c r="F239" s="37">
-        <v>1457</v>
+        <v>1513</v>
       </c>
       <c r="G239" s="38">
         <v>63471</v>
@@ -10102,13 +10102,13 @@
         <v>3300</v>
       </c>
       <c r="D240" s="37">
-        <v>3616</v>
+        <v>3756</v>
       </c>
       <c r="E240" s="37">
-        <v>2733</v>
+        <v>2808</v>
       </c>
       <c r="F240" s="37">
-        <v>883</v>
+        <v>948</v>
       </c>
       <c r="G240" s="38">
         <v>43350</v>
@@ -10137,13 +10137,13 @@
         <v>600</v>
       </c>
       <c r="D241" s="37">
-        <v>1429</v>
+        <v>1467</v>
       </c>
       <c r="E241" s="37">
-        <v>1132</v>
+        <v>1159</v>
       </c>
       <c r="F241" s="37">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="G241" s="38">
         <v>8921</v>
@@ -10172,13 +10172,13 @@
         <v>14000</v>
       </c>
       <c r="D242" s="37">
-        <v>5429</v>
+        <v>5594</v>
       </c>
       <c r="E242" s="37">
-        <v>4421</v>
+        <v>4470</v>
       </c>
       <c r="F242" s="37">
-        <v>1008</v>
+        <v>1124</v>
       </c>
       <c r="G242" s="38">
         <v>29086</v>
@@ -10207,13 +10207,13 @@
         <v>46900</v>
       </c>
       <c r="D243" s="37">
-        <v>38951</v>
+        <v>39688</v>
       </c>
       <c r="E243" s="37">
-        <v>28534</v>
+        <v>29148</v>
       </c>
       <c r="F243" s="37">
-        <v>10417</v>
+        <v>10540</v>
       </c>
       <c r="G243" s="38">
         <v>196916</v>
@@ -10242,13 +10242,13 @@
         <v>2800</v>
       </c>
       <c r="D244" s="37">
-        <v>3460</v>
+        <v>3673</v>
       </c>
       <c r="E244" s="37">
-        <v>2442</v>
+        <v>2576</v>
       </c>
       <c r="F244" s="37">
-        <v>1018</v>
+        <v>1097</v>
       </c>
       <c r="G244" s="38">
         <v>32110</v>
@@ -10277,13 +10277,13 @@
         <v>900</v>
       </c>
       <c r="D245" s="37">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E245" s="37">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F245" s="37">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G245" s="38">
         <v>3915</v>
@@ -10312,13 +10312,13 @@
         <v>28000</v>
       </c>
       <c r="D246" s="37">
-        <v>24573</v>
+        <v>24946</v>
       </c>
       <c r="E246" s="37">
-        <v>16218</v>
+        <v>16294</v>
       </c>
       <c r="F246" s="37">
-        <v>8355</v>
+        <v>8652</v>
       </c>
       <c r="G246" s="38">
         <v>105631</v>
@@ -10347,13 +10347,13 @@
         <v>5700</v>
       </c>
       <c r="D247" s="37">
-        <v>3511</v>
+        <v>3663</v>
       </c>
       <c r="E247" s="37">
-        <v>2392</v>
+        <v>2481</v>
       </c>
       <c r="F247" s="37">
-        <v>1119</v>
+        <v>1182</v>
       </c>
       <c r="G247" s="38">
         <v>10361</v>
@@ -10382,13 +10382,13 @@
         <v>800</v>
       </c>
       <c r="D248" s="37">
-        <v>2399</v>
+        <v>2443</v>
       </c>
       <c r="E248" s="37">
-        <v>1804</v>
+        <v>1837</v>
       </c>
       <c r="F248" s="37">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="G248" s="38">
         <v>16897</v>
@@ -10417,13 +10417,13 @@
         <v>65550</v>
       </c>
       <c r="D249" s="37">
-        <v>61907</v>
+        <v>63289</v>
       </c>
       <c r="E249" s="37">
-        <v>43973</v>
+        <v>44895</v>
       </c>
       <c r="F249" s="37">
-        <v>17934</v>
+        <v>18394</v>
       </c>
       <c r="G249" s="38">
         <v>458433</v>
@@ -10452,13 +10452,13 @@
         <v>4100</v>
       </c>
       <c r="D250" s="37">
-        <v>6146</v>
+        <v>6296</v>
       </c>
       <c r="E250" s="37">
-        <v>3956</v>
+        <v>4043</v>
       </c>
       <c r="F250" s="37">
-        <v>2190</v>
+        <v>2253</v>
       </c>
       <c r="G250" s="38">
         <v>40488</v>
@@ -10487,10 +10487,10 @@
         <v>400</v>
       </c>
       <c r="D251" s="37">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="E251" s="37">
-        <v>825</v>
+        <v>874</v>
       </c>
       <c r="F251" s="37">
         <v>230</v>
@@ -10522,13 +10522,13 @@
         <v>6850</v>
       </c>
       <c r="D252" s="37">
-        <v>7616</v>
+        <v>7736</v>
       </c>
       <c r="E252" s="37">
-        <v>4517</v>
+        <v>4608</v>
       </c>
       <c r="F252" s="37">
-        <v>3099</v>
+        <v>3128</v>
       </c>
       <c r="G252" s="38">
         <v>54722</v>
@@ -10557,13 +10557,13 @@
         <v>2400</v>
       </c>
       <c r="D253" s="37">
-        <v>4232</v>
+        <v>5183</v>
       </c>
       <c r="E253" s="37">
-        <v>3196</v>
+        <v>3840</v>
       </c>
       <c r="F253" s="37">
-        <v>1036</v>
+        <v>1343</v>
       </c>
       <c r="G253" s="38">
         <v>38005</v>
@@ -10592,13 +10592,13 @@
         <v>800</v>
       </c>
       <c r="D254" s="37">
-        <v>1105</v>
+        <v>1200</v>
       </c>
       <c r="E254" s="37">
-        <v>741</v>
+        <v>799</v>
       </c>
       <c r="F254" s="37">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="G254" s="38">
         <v>6135</v>
@@ -10627,13 +10627,13 @@
         <v>2700</v>
       </c>
       <c r="D255" s="37">
-        <v>2372</v>
+        <v>2582</v>
       </c>
       <c r="E255" s="37">
-        <v>1720</v>
+        <v>1786</v>
       </c>
       <c r="F255" s="37">
-        <v>652</v>
+        <v>796</v>
       </c>
       <c r="G255" s="38">
         <v>14219</v>
@@ -10662,13 +10662,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="37">
-        <v>1530</v>
+        <v>1544</v>
       </c>
       <c r="E256" s="37">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="F256" s="37">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G256" s="38">
         <v>9981</v>
@@ -10697,13 +10697,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="37">
-        <v>2628</v>
+        <v>2647</v>
       </c>
       <c r="E257" s="37">
-        <v>2306</v>
+        <v>2310</v>
       </c>
       <c r="F257" s="37">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="G257" s="38">
         <v>8840</v>
@@ -10729,16 +10729,16 @@
         <v>291</v>
       </c>
       <c r="C258" s="37">
-        <v>9775</v>
+        <v>720525</v>
       </c>
       <c r="D258" s="37">
-        <v>331160</v>
+        <v>321570</v>
       </c>
       <c r="E258" s="37">
-        <v>262995</v>
+        <v>258002</v>
       </c>
       <c r="F258" s="37">
-        <v>68165</v>
+        <v>63568</v>
       </c>
       <c r="G258" s="38"/>
       <c r="H258" s="38"/>
@@ -10774,14 +10774,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>278</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>281</v>
       </c>
@@ -10812,16 +10812,16 @@
         <v>298</v>
       </c>
       <c r="D2" s="32">
-        <v>54980</v>
+        <v>56190</v>
       </c>
       <c r="E2" s="32">
-        <v>34808</v>
+        <v>35405</v>
       </c>
       <c r="F2" s="32">
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>20785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>281</v>
       </c>
@@ -10832,16 +10832,16 @@
         <v>299</v>
       </c>
       <c r="D3" s="32">
-        <v>39810</v>
+        <v>41046</v>
       </c>
       <c r="E3" s="32">
-        <v>26140</v>
+        <v>26865</v>
       </c>
       <c r="F3" s="32">
-        <v>13670</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>14181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>281</v>
       </c>
@@ -10852,16 +10852,16 @@
         <v>297</v>
       </c>
       <c r="D4" s="32">
-        <v>134000</v>
+        <v>139471</v>
       </c>
       <c r="E4" s="32">
-        <v>93033</v>
+        <v>96438</v>
       </c>
       <c r="F4" s="32">
-        <v>40967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>281</v>
       </c>
@@ -10872,16 +10872,16 @@
         <v>301</v>
       </c>
       <c r="D5" s="32">
-        <v>223328</v>
+        <v>230572</v>
       </c>
       <c r="E5" s="32">
-        <v>143182</v>
+        <v>147890</v>
       </c>
       <c r="F5" s="32">
-        <v>80146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>82682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>281</v>
       </c>
@@ -10892,16 +10892,16 @@
         <v>300</v>
       </c>
       <c r="D6" s="32">
-        <v>75625</v>
+        <v>76988</v>
       </c>
       <c r="E6" s="32">
-        <v>51309</v>
+        <v>52127</v>
       </c>
       <c r="F6" s="32">
-        <v>24316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>24861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>281</v>
       </c>
@@ -10912,17 +10912,17 @@
         <v>286</v>
       </c>
       <c r="D7" s="32">
-        <v>315799</v>
+        <v>318727</v>
       </c>
       <c r="E7" s="32">
-        <v>208802</v>
+        <v>209485</v>
       </c>
       <c r="F7" s="32">
-        <v>106997</v>
+        <v>109242</v>
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>281</v>
       </c>
@@ -10933,17 +10933,17 @@
         <v>298</v>
       </c>
       <c r="D8" s="32">
-        <v>27364</v>
+        <v>28042</v>
       </c>
       <c r="E8" s="32">
-        <v>18777</v>
+        <v>19106</v>
       </c>
       <c r="F8" s="32">
-        <v>8587</v>
+        <v>8936</v>
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>281</v>
       </c>
@@ -10954,17 +10954,17 @@
         <v>299</v>
       </c>
       <c r="D9" s="32">
-        <v>34202</v>
+        <v>35594</v>
       </c>
       <c r="E9" s="32">
-        <v>24051</v>
+        <v>24923</v>
       </c>
       <c r="F9" s="32">
-        <v>10151</v>
+        <v>10671</v>
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>281</v>
       </c>
@@ -10975,17 +10975,17 @@
         <v>297</v>
       </c>
       <c r="D10" s="32">
-        <v>76491</v>
+        <v>80366</v>
       </c>
       <c r="E10" s="32">
-        <v>57364</v>
+        <v>59926</v>
       </c>
       <c r="F10" s="32">
-        <v>19127</v>
+        <v>20440</v>
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>281</v>
       </c>
@@ -10996,17 +10996,17 @@
         <v>301</v>
       </c>
       <c r="D11" s="32">
-        <v>160850</v>
+        <v>168284</v>
       </c>
       <c r="E11" s="32">
-        <v>113070</v>
+        <v>118080</v>
       </c>
       <c r="F11" s="32">
-        <v>47780</v>
+        <v>50204</v>
       </c>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>281</v>
       </c>
@@ -11017,17 +11017,17 @@
         <v>300</v>
       </c>
       <c r="D12" s="32">
-        <v>48326</v>
+        <v>49111</v>
       </c>
       <c r="E12" s="32">
-        <v>34325</v>
+        <v>34788</v>
       </c>
       <c r="F12" s="32">
-        <v>14001</v>
+        <v>14323</v>
       </c>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>281</v>
       </c>
@@ -11038,17 +11038,17 @@
         <v>286</v>
       </c>
       <c r="D13" s="32">
-        <v>203920</v>
+        <v>205839</v>
       </c>
       <c r="E13" s="32">
-        <v>143041</v>
+        <v>143177</v>
       </c>
       <c r="F13" s="32">
-        <v>60879</v>
+        <v>62662</v>
       </c>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>281</v>
       </c>
@@ -11059,17 +11059,17 @@
         <v>298</v>
       </c>
       <c r="D14" s="32">
-        <v>29913</v>
+        <v>31179</v>
       </c>
       <c r="E14" s="32">
-        <v>22759</v>
+        <v>23419</v>
       </c>
       <c r="F14" s="32">
-        <v>7154</v>
+        <v>7760</v>
       </c>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>281</v>
       </c>
@@ -11080,17 +11080,17 @@
         <v>299</v>
       </c>
       <c r="D15" s="32">
-        <v>33535</v>
+        <v>35439</v>
       </c>
       <c r="E15" s="32">
-        <v>27333</v>
+        <v>28561</v>
       </c>
       <c r="F15" s="32">
-        <v>6202</v>
+        <v>6878</v>
       </c>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>281</v>
       </c>
@@ -11101,17 +11101,17 @@
         <v>297</v>
       </c>
       <c r="D16" s="32">
-        <v>69210</v>
+        <v>73186</v>
       </c>
       <c r="E16" s="32">
-        <v>55097</v>
+        <v>58003</v>
       </c>
       <c r="F16" s="32">
-        <v>14113</v>
+        <v>15183</v>
       </c>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>281</v>
       </c>
@@ -11122,17 +11122,17 @@
         <v>301</v>
       </c>
       <c r="D17" s="32">
-        <v>270766</v>
+        <v>288770</v>
       </c>
       <c r="E17" s="32">
-        <v>211968</v>
+        <v>222925</v>
       </c>
       <c r="F17" s="32">
-        <v>58798</v>
+        <v>65845</v>
       </c>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>281</v>
       </c>
@@ -11143,17 +11143,17 @@
         <v>300</v>
       </c>
       <c r="D18" s="32">
-        <v>53492</v>
+        <v>54908</v>
       </c>
       <c r="E18" s="32">
-        <v>40400</v>
+        <v>41192</v>
       </c>
       <c r="F18" s="32">
-        <v>13092</v>
+        <v>13716</v>
       </c>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>281</v>
       </c>
@@ -11164,17 +11164,17 @@
         <v>286</v>
       </c>
       <c r="D19" s="32">
-        <v>225846</v>
+        <v>226280</v>
       </c>
       <c r="E19" s="32">
-        <v>171479</v>
+        <v>169401</v>
       </c>
       <c r="F19" s="32">
-        <v>54367</v>
+        <v>56879</v>
       </c>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>281</v>
       </c>
@@ -11185,17 +11185,17 @@
         <v>298</v>
       </c>
       <c r="D20" s="32">
-        <v>6302</v>
+        <v>6615</v>
       </c>
       <c r="E20" s="32">
-        <v>4783</v>
+        <v>4942</v>
       </c>
       <c r="F20" s="32">
-        <v>1519</v>
+        <v>1673</v>
       </c>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>281</v>
       </c>
@@ -11206,17 +11206,17 @@
         <v>299</v>
       </c>
       <c r="D21" s="32">
-        <v>7153</v>
+        <v>7643</v>
       </c>
       <c r="E21" s="32">
-        <v>5848</v>
+        <v>6198</v>
       </c>
       <c r="F21" s="32">
-        <v>1305</v>
+        <v>1445</v>
       </c>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>281</v>
       </c>
@@ -11227,13 +11227,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="32">
-        <v>16991</v>
+        <v>18022</v>
       </c>
       <c r="E22" s="32">
-        <v>13744</v>
+        <v>14482</v>
       </c>
       <c r="F22" s="32">
-        <v>3247</v>
+        <v>3540</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11248,13 +11248,13 @@
         <v>301</v>
       </c>
       <c r="D23" s="32">
-        <v>81106</v>
+        <v>86650</v>
       </c>
       <c r="E23" s="32">
-        <v>62208</v>
+        <v>65495</v>
       </c>
       <c r="F23" s="32">
-        <v>18898</v>
+        <v>21155</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11269,13 +11269,13 @@
         <v>300</v>
       </c>
       <c r="D24" s="32">
-        <v>49188</v>
+        <v>49737</v>
       </c>
       <c r="E24" s="32">
-        <v>34555</v>
+        <v>34774</v>
       </c>
       <c r="F24" s="32">
-        <v>14633</v>
+        <v>14963</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11290,13 +11290,13 @@
         <v>286</v>
       </c>
       <c r="D25" s="32">
-        <v>81165</v>
+        <v>81105</v>
       </c>
       <c r="E25" s="32">
-        <v>61052</v>
+        <v>60201</v>
       </c>
       <c r="F25" s="32">
-        <v>20113</v>
+        <v>20904</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11311,10 +11311,10 @@
         <v>298</v>
       </c>
       <c r="D26" s="32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="32">
         <v>2</v>
@@ -11332,13 +11332,13 @@
         <v>299</v>
       </c>
       <c r="D27" s="32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27" s="32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O27" s="30"/>
     </row>
@@ -11353,13 +11353,13 @@
         <v>297</v>
       </c>
       <c r="D28" s="32">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E28" s="32">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F28" s="32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -11374,13 +11374,13 @@
         <v>301</v>
       </c>
       <c r="D29" s="32">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E29" s="32">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F29" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O29" s="30"/>
     </row>
@@ -11395,10 +11395,10 @@
         <v>300</v>
       </c>
       <c r="D30" s="32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="32">
         <v>4</v>
@@ -11416,13 +11416,13 @@
         <v>286</v>
       </c>
       <c r="D31" s="32">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E31" s="32">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F31" s="32">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11437,13 +11437,13 @@
         <v>298</v>
       </c>
       <c r="D32" s="32">
-        <v>36974</v>
+        <v>37852</v>
       </c>
       <c r="E32" s="32">
-        <v>24004</v>
+        <v>24467</v>
       </c>
       <c r="F32" s="32">
-        <v>12970</v>
+        <v>13385</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11458,13 +11458,13 @@
         <v>299</v>
       </c>
       <c r="D33" s="32">
-        <v>17943</v>
+        <v>18619</v>
       </c>
       <c r="E33" s="32">
-        <v>12201</v>
+        <v>12605</v>
       </c>
       <c r="F33" s="32">
-        <v>5742</v>
+        <v>6014</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11479,13 +11479,13 @@
         <v>297</v>
       </c>
       <c r="D34" s="32">
-        <v>75170</v>
+        <v>78970</v>
       </c>
       <c r="E34" s="32">
-        <v>54281</v>
+        <v>56845</v>
       </c>
       <c r="F34" s="32">
-        <v>20889</v>
+        <v>22125</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11500,13 +11500,13 @@
         <v>301</v>
       </c>
       <c r="D35" s="32">
-        <v>120187</v>
+        <v>125648</v>
       </c>
       <c r="E35" s="32">
-        <v>80237</v>
+        <v>83919</v>
       </c>
       <c r="F35" s="32">
-        <v>39950</v>
+        <v>41729</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11521,13 +11521,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="32">
-        <v>37364</v>
+        <v>38245</v>
       </c>
       <c r="E36" s="32">
-        <v>25614</v>
+        <v>26235</v>
       </c>
       <c r="F36" s="32">
-        <v>11750</v>
+        <v>12010</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11542,13 +11542,13 @@
         <v>286</v>
       </c>
       <c r="D37" s="32">
-        <v>193041</v>
+        <v>195008</v>
       </c>
       <c r="E37" s="32">
-        <v>129700</v>
+        <v>130400</v>
       </c>
       <c r="F37" s="32">
-        <v>63341</v>
+        <v>64608</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11563,13 +11563,13 @@
         <v>298</v>
       </c>
       <c r="D38" s="32">
-        <v>20450</v>
+        <v>20983</v>
       </c>
       <c r="E38" s="32">
-        <v>14468</v>
+        <v>14733</v>
       </c>
       <c r="F38" s="32">
-        <v>5982</v>
+        <v>6250</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11584,13 +11584,13 @@
         <v>299</v>
       </c>
       <c r="D39" s="32">
-        <v>19611</v>
+        <v>20577</v>
       </c>
       <c r="E39" s="32">
-        <v>14376</v>
+        <v>14996</v>
       </c>
       <c r="F39" s="32">
-        <v>5235</v>
+        <v>5581</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11605,13 +11605,13 @@
         <v>297</v>
       </c>
       <c r="D40" s="32">
-        <v>51255</v>
+        <v>54085</v>
       </c>
       <c r="E40" s="32">
-        <v>39415</v>
+        <v>41286</v>
       </c>
       <c r="F40" s="32">
-        <v>11840</v>
+        <v>12799</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11626,13 +11626,13 @@
         <v>301</v>
       </c>
       <c r="D41" s="32">
-        <v>107989</v>
+        <v>114219</v>
       </c>
       <c r="E41" s="32">
-        <v>78513</v>
+        <v>82646</v>
       </c>
       <c r="F41" s="32">
-        <v>29476</v>
+        <v>31573</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11647,13 +11647,13 @@
         <v>300</v>
       </c>
       <c r="D42" s="32">
-        <v>27210</v>
+        <v>27868</v>
       </c>
       <c r="E42" s="32">
-        <v>19534</v>
+        <v>19961</v>
       </c>
       <c r="F42" s="32">
-        <v>7676</v>
+        <v>7907</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11668,13 +11668,13 @@
         <v>286</v>
       </c>
       <c r="D43" s="32">
-        <v>138062</v>
+        <v>139476</v>
       </c>
       <c r="E43" s="32">
-        <v>98599</v>
+        <v>98754</v>
       </c>
       <c r="F43" s="32">
-        <v>39463</v>
+        <v>40722</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11689,13 +11689,13 @@
         <v>298</v>
       </c>
       <c r="D44" s="32">
-        <v>26423</v>
+        <v>27496</v>
       </c>
       <c r="E44" s="32">
-        <v>20022</v>
+        <v>20590</v>
       </c>
       <c r="F44" s="32">
-        <v>6401</v>
+        <v>6906</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11710,13 +11710,13 @@
         <v>299</v>
       </c>
       <c r="D45" s="32">
-        <v>21562</v>
+        <v>22900</v>
       </c>
       <c r="E45" s="32">
-        <v>17567</v>
+        <v>18419</v>
       </c>
       <c r="F45" s="32">
-        <v>3995</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11730,13 +11730,13 @@
         <v>297</v>
       </c>
       <c r="D46" s="32">
-        <v>52735</v>
+        <v>55692</v>
       </c>
       <c r="E46" s="32">
-        <v>41707</v>
+        <v>43869</v>
       </c>
       <c r="F46" s="32">
-        <v>11028</v>
+        <v>11823</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11751,13 +11751,13 @@
         <v>301</v>
       </c>
       <c r="D47" s="32">
-        <v>232265</v>
+        <v>247958</v>
       </c>
       <c r="E47" s="32">
-        <v>181372</v>
+        <v>190824</v>
       </c>
       <c r="F47" s="32">
-        <v>50893</v>
+        <v>57134</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11772,13 +11772,13 @@
         <v>300</v>
       </c>
       <c r="D48" s="32">
-        <v>38917</v>
+        <v>40086</v>
       </c>
       <c r="E48" s="32">
-        <v>29548</v>
+        <v>30220</v>
       </c>
       <c r="F48" s="32">
-        <v>9369</v>
+        <v>9866</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11792,13 +11792,13 @@
         <v>286</v>
       </c>
       <c r="D49" s="32">
-        <v>186566</v>
+        <v>187122</v>
       </c>
       <c r="E49" s="32">
-        <v>141070</v>
+        <v>139538</v>
       </c>
       <c r="F49" s="32">
-        <v>45496</v>
+        <v>47584</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11813,13 +11813,13 @@
         <v>298</v>
       </c>
       <c r="D50" s="32">
-        <v>5479</v>
+        <v>5759</v>
       </c>
       <c r="E50" s="32">
-        <v>4067</v>
+        <v>4221</v>
       </c>
       <c r="F50" s="32">
-        <v>1412</v>
+        <v>1538</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11834,13 +11834,13 @@
         <v>299</v>
       </c>
       <c r="D51" s="32">
-        <v>3589</v>
+        <v>3845</v>
       </c>
       <c r="E51" s="32">
-        <v>2871</v>
+        <v>3047</v>
       </c>
       <c r="F51" s="32">
-        <v>718</v>
+        <v>798</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11854,13 +11854,13 @@
         <v>297</v>
       </c>
       <c r="D52" s="32">
-        <v>10562</v>
+        <v>11208</v>
       </c>
       <c r="E52" s="32">
-        <v>8493</v>
+        <v>8964</v>
       </c>
       <c r="F52" s="32">
-        <v>2069</v>
+        <v>2244</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11875,13 +11875,13 @@
         <v>301</v>
       </c>
       <c r="D53" s="32">
-        <v>64315</v>
+        <v>69024</v>
       </c>
       <c r="E53" s="32">
-        <v>48285</v>
+        <v>50978</v>
       </c>
       <c r="F53" s="32">
-        <v>16030</v>
+        <v>18046</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11896,13 +11896,13 @@
         <v>300</v>
       </c>
       <c r="D54" s="32">
-        <v>20781</v>
+        <v>21127</v>
       </c>
       <c r="E54" s="32">
-        <v>14897</v>
+        <v>15045</v>
       </c>
       <c r="F54" s="32">
-        <v>5884</v>
+        <v>6082</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11917,13 +11917,13 @@
         <v>286</v>
       </c>
       <c r="D55" s="32">
-        <v>52822</v>
+        <v>52507</v>
       </c>
       <c r="E55" s="32">
-        <v>40001</v>
+        <v>39179</v>
       </c>
       <c r="F55" s="32">
-        <v>12821</v>
+        <v>13328</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11938,13 +11938,13 @@
         <v>298</v>
       </c>
       <c r="D56" s="32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E56" s="32">
         <v>22</v>
       </c>
       <c r="F56" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O56" s="30"/>
     </row>
@@ -11959,10 +11959,10 @@
         <v>299</v>
       </c>
       <c r="D57" s="32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E57" s="32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F57" s="32">
         <v>2</v>
@@ -11979,13 +11979,13 @@
         <v>297</v>
       </c>
       <c r="D58" s="32">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E58" s="32">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F58" s="32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O58" s="30"/>
     </row>
@@ -12000,13 +12000,13 @@
         <v>301</v>
       </c>
       <c r="D59" s="32">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E59" s="32">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F59" s="32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O59" s="30"/>
     </row>
@@ -12021,10 +12021,10 @@
         <v>300</v>
       </c>
       <c r="D60" s="32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E60" s="32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F60" s="32">
         <v>3</v>
@@ -12066,10 +12066,10 @@
         <v>991</v>
       </c>
       <c r="E62" s="32">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F62" s="32">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12084,13 +12084,13 @@
         <v>299</v>
       </c>
       <c r="D63" s="32">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E63" s="32">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F63" s="32">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12104,13 +12104,13 @@
         <v>297</v>
       </c>
       <c r="D64" s="32">
-        <v>1463</v>
+        <v>1410</v>
       </c>
       <c r="E64" s="32">
-        <v>1055</v>
+        <v>999</v>
       </c>
       <c r="F64" s="32">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12125,13 +12125,13 @@
         <v>301</v>
       </c>
       <c r="D65" s="32">
-        <v>3027</v>
+        <v>3005</v>
       </c>
       <c r="E65" s="32">
-        <v>2092</v>
+        <v>2062</v>
       </c>
       <c r="F65" s="32">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12146,13 +12146,13 @@
         <v>300</v>
       </c>
       <c r="D66" s="32">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="E66" s="32">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="F66" s="32">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12166,13 +12166,13 @@
         <v>286</v>
       </c>
       <c r="D67" s="32">
-        <v>9674</v>
+        <v>9677</v>
       </c>
       <c r="E67" s="32">
         <v>7806</v>
       </c>
       <c r="F67" s="32">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12187,13 +12187,13 @@
         <v>298</v>
       </c>
       <c r="D68" s="32">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E68" s="32">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F68" s="32">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12208,13 +12208,13 @@
         <v>299</v>
       </c>
       <c r="D69" s="32">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E69" s="32">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F69" s="32">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12228,13 +12228,13 @@
         <v>297</v>
       </c>
       <c r="D70" s="32">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="E70" s="32">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="F70" s="32">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12249,13 +12249,13 @@
         <v>301</v>
       </c>
       <c r="D71" s="32">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="E71" s="32">
-        <v>1838</v>
+        <v>1825</v>
       </c>
       <c r="F71" s="32">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12270,13 +12270,13 @@
         <v>300</v>
       </c>
       <c r="D72" s="32">
-        <v>1412</v>
+        <v>1428</v>
       </c>
       <c r="E72" s="32">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F72" s="32">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12311,13 +12311,13 @@
         <v>298</v>
       </c>
       <c r="D74" s="32">
-        <v>2074</v>
+        <v>2094</v>
       </c>
       <c r="E74" s="32">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="F74" s="32">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12332,13 +12332,13 @@
         <v>299</v>
       </c>
       <c r="D75" s="32">
-        <v>1266</v>
+        <v>1281</v>
       </c>
       <c r="E75" s="32">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F75" s="32">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12353,13 +12353,13 @@
         <v>297</v>
       </c>
       <c r="D76" s="32">
-        <v>1434</v>
+        <v>1449</v>
       </c>
       <c r="E76" s="32">
         <v>1117</v>
       </c>
       <c r="F76" s="32">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12374,13 +12374,13 @@
         <v>301</v>
       </c>
       <c r="D77" s="32">
-        <v>12605</v>
+        <v>12714</v>
       </c>
       <c r="E77" s="32">
-        <v>9248</v>
+        <v>9195</v>
       </c>
       <c r="F77" s="32">
-        <v>3357</v>
+        <v>3519</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12395,13 +12395,13 @@
         <v>300</v>
       </c>
       <c r="D78" s="32">
-        <v>5169</v>
+        <v>5224</v>
       </c>
       <c r="E78" s="32">
-        <v>3679</v>
+        <v>3658</v>
       </c>
       <c r="F78" s="32">
-        <v>1490</v>
+        <v>1566</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12416,13 +12416,13 @@
         <v>286</v>
       </c>
       <c r="D79" s="32">
-        <v>18273</v>
+        <v>18276</v>
       </c>
       <c r="E79" s="32">
-        <v>12497</v>
+        <v>12489</v>
       </c>
       <c r="F79" s="32">
-        <v>5776</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12436,13 +12436,13 @@
         <v>298</v>
       </c>
       <c r="D80" s="32">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E80" s="32">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F80" s="32">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12456,13 +12456,13 @@
         <v>299</v>
       </c>
       <c r="D81" s="32">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E81" s="32">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F81" s="32">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12476,13 +12476,13 @@
         <v>297</v>
       </c>
       <c r="D82" s="32">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E82" s="32">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F82" s="32">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12496,13 +12496,13 @@
         <v>301</v>
       </c>
       <c r="D83" s="32">
-        <v>2315</v>
+        <v>2335</v>
       </c>
       <c r="E83" s="32">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="F83" s="32">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12516,13 +12516,13 @@
         <v>300</v>
       </c>
       <c r="D84" s="32">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="E84" s="32">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F84" s="32">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12536,13 +12536,13 @@
         <v>286</v>
       </c>
       <c r="D85" s="32">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="E85" s="32">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="F85" s="32">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12676,13 +12676,13 @@
         <v>287</v>
       </c>
       <c r="D92" s="32">
-        <v>3964801</v>
+        <v>4090423</v>
       </c>
       <c r="E92" s="32">
-        <v>2861794</v>
+        <v>2931147</v>
       </c>
       <c r="F92" s="32">
-        <v>1103007</v>
+        <v>1159276</v>
       </c>
     </row>
   </sheetData>
@@ -12693,7 +12693,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12701,7 +12701,7 @@
   <cols>
     <col min="1" max="1" width="10.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.59765625" style="23"/>
   </cols>
   <sheetData>
@@ -12724,7 +12724,7 @@
         <v>44179</v>
       </c>
       <c r="C2" s="32">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12768,7 +12768,7 @@
         <v>44183</v>
       </c>
       <c r="C6" s="32">
-        <v>24804</v>
+        <v>24805</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12812,7 +12812,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="32">
-        <v>17206</v>
+        <v>17236</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12823,7 +12823,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="32">
-        <v>24670</v>
+        <v>24677</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12845,7 +12845,7 @@
         <v>44190</v>
       </c>
       <c r="C13" s="32">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12867,7 +12867,7 @@
         <v>44192</v>
       </c>
       <c r="C15" s="32">
-        <v>5313</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12878,7 +12878,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="32">
-        <v>25495</v>
+        <v>25502</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12889,7 +12889,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="32">
-        <v>32117</v>
+        <v>32122</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12900,7 +12900,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>37952</v>
+        <v>37973</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12911,7 +12911,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="32">
-        <v>21683</v>
+        <v>21685</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12922,7 +12922,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="32">
-        <v>2312</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12933,7 +12933,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>10015</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12944,7 +12944,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6221</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12955,7 +12955,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>24063</v>
+        <v>24091</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="32">
-        <v>27988</v>
+        <v>28105</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12977,7 +12977,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36154</v>
+        <v>36161</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12988,7 +12988,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40937</v>
+        <v>40942</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12999,7 +12999,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>44014</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13010,7 +13010,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="32">
-        <v>18605</v>
+        <v>18606</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13032,7 +13032,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28578</v>
+        <v>28583</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="32">
-        <v>29404</v>
+        <v>29613</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13054,7 +13054,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>27958</v>
+        <v>28024</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21773</v>
+        <v>21795</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23820</v>
+        <v>23845</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13087,7 +13087,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>13041</v>
+        <v>13056</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13109,7 +13109,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="32">
-        <v>12182</v>
+        <v>12192</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13120,7 +13120,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22396</v>
+        <v>22412</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13131,7 +13131,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>30126</v>
+        <v>30178</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13142,7 +13142,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27596</v>
+        <v>27629</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13153,7 +13153,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>33204</v>
+        <v>33365</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13164,7 +13164,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>18369</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13186,7 +13186,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>34351</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13197,7 +13197,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>41382</v>
+        <v>41419</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13208,7 +13208,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>42338</v>
+        <v>42363</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13219,7 +13219,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>38709</v>
+        <v>38731</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13230,7 +13230,7 @@
         <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>36548</v>
+        <v>36637</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13241,7 +13241,7 @@
         <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>17846</v>
+        <v>17958</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13252,7 +13252,7 @@
         <v>44227</v>
       </c>
       <c r="C50" s="32">
-        <v>7591</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13263,7 +13263,7 @@
         <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>31293</v>
+        <v>31377</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13274,7 +13274,7 @@
         <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>30331</v>
+        <v>30574</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13285,7 +13285,7 @@
         <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>42492</v>
+        <v>42655</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13296,7 +13296,7 @@
         <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>41321</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13307,7 +13307,7 @@
         <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>43770</v>
+        <v>46655</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13318,7 +13318,7 @@
         <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>24921</v>
+        <v>25554</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>44234</v>
       </c>
       <c r="C57" s="32">
-        <v>5274</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13340,7 +13340,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="32">
-        <v>22962</v>
+        <v>23077</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13351,7 +13351,7 @@
         <v>44236</v>
       </c>
       <c r="C59" s="32">
-        <v>31425</v>
+        <v>31956</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13362,7 +13362,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="32">
-        <v>25940</v>
+        <v>30501</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13373,7 +13373,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="32">
-        <v>16805</v>
+        <v>27544</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13384,18 +13384,18 @@
         <v>44239</v>
       </c>
       <c r="C62" s="32">
-        <v>11108</v>
+        <v>16906</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B63" s="35">
-        <v>44179</v>
+        <v>44240</v>
       </c>
       <c r="C63" s="32">
-        <v>139</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13403,10 +13403,10 @@
         <v>283</v>
       </c>
       <c r="B64" s="35">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C64" s="32">
-        <v>1491</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13414,10 +13414,10 @@
         <v>283</v>
       </c>
       <c r="B65" s="35">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C65" s="32">
-        <v>4970</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13425,10 +13425,10 @@
         <v>283</v>
       </c>
       <c r="B66" s="35">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C66" s="32">
-        <v>6644</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13436,10 +13436,10 @@
         <v>283</v>
       </c>
       <c r="B67" s="35">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C67" s="32">
-        <v>10831</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13447,10 +13447,10 @@
         <v>283</v>
       </c>
       <c r="B68" s="35">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C68" s="32">
-        <v>4707</v>
+        <v>10831</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13458,10 +13458,10 @@
         <v>283</v>
       </c>
       <c r="B69" s="35">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C69" s="32">
-        <v>2533</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13469,10 +13469,10 @@
         <v>283</v>
       </c>
       <c r="B70" s="35">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C70" s="32">
-        <v>7902</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13480,10 +13480,10 @@
         <v>283</v>
       </c>
       <c r="B71" s="35">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C71" s="32">
-        <v>7395</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13491,10 +13491,10 @@
         <v>283</v>
       </c>
       <c r="B72" s="35">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C72" s="32">
-        <v>10796</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13502,10 +13502,10 @@
         <v>283</v>
       </c>
       <c r="B73" s="35">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C73" s="32">
-        <v>4639</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13513,10 +13513,10 @@
         <v>283</v>
       </c>
       <c r="B74" s="35">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C74" s="32">
-        <v>665</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13524,10 +13524,10 @@
         <v>283</v>
       </c>
       <c r="B75" s="35">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C75" s="32">
-        <v>3186</v>
+        <v>667</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13535,10 +13535,10 @@
         <v>283</v>
       </c>
       <c r="B76" s="35">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C76" s="32">
-        <v>2242</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13546,10 +13546,10 @@
         <v>283</v>
       </c>
       <c r="B77" s="35">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C77" s="32">
-        <v>12872</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13557,10 +13557,10 @@
         <v>283</v>
       </c>
       <c r="B78" s="35">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C78" s="32">
-        <v>16955</v>
+        <v>12877</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13568,10 +13568,10 @@
         <v>283</v>
       </c>
       <c r="B79" s="35">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C79" s="32">
-        <v>20835</v>
+        <v>16961</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13579,10 +13579,10 @@
         <v>283</v>
       </c>
       <c r="B80" s="35">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C80" s="32">
-        <v>12626</v>
+        <v>20840</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13590,10 +13590,10 @@
         <v>283</v>
       </c>
       <c r="B81" s="35">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C81" s="32">
-        <v>1198</v>
+        <v>12629</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13601,10 +13601,10 @@
         <v>283</v>
       </c>
       <c r="B82" s="35">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C82" s="32">
-        <v>5756</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13612,10 +13612,10 @@
         <v>283</v>
       </c>
       <c r="B83" s="35">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C83" s="32">
-        <v>3315</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13623,10 +13623,10 @@
         <v>283</v>
       </c>
       <c r="B84" s="35">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C84" s="32">
-        <v>14884</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13634,10 +13634,10 @@
         <v>283</v>
       </c>
       <c r="B85" s="35">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C85" s="32">
-        <v>16616</v>
+        <v>14903</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13645,10 +13645,10 @@
         <v>283</v>
       </c>
       <c r="B86" s="35">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C86" s="32">
-        <v>20129</v>
+        <v>16690</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13656,10 +13656,10 @@
         <v>283</v>
       </c>
       <c r="B87" s="35">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C87" s="32">
-        <v>22933</v>
+        <v>20131</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13667,10 +13667,10 @@
         <v>283</v>
       </c>
       <c r="B88" s="35">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C88" s="32">
-        <v>24585</v>
+        <v>22938</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13678,10 +13678,10 @@
         <v>283</v>
       </c>
       <c r="B89" s="35">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C89" s="32">
-        <v>10681</v>
+        <v>24601</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13689,10 +13689,10 @@
         <v>283</v>
       </c>
       <c r="B90" s="35">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C90" s="32">
-        <v>4452</v>
+        <v>10681</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13700,10 +13700,10 @@
         <v>283</v>
       </c>
       <c r="B91" s="35">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C91" s="32">
-        <v>18174</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13711,10 +13711,10 @@
         <v>283</v>
       </c>
       <c r="B92" s="35">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C92" s="32">
-        <v>19976</v>
+        <v>18175</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13722,10 +13722,10 @@
         <v>283</v>
       </c>
       <c r="B93" s="35">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C93" s="32">
-        <v>20118</v>
+        <v>20117</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13733,10 +13733,10 @@
         <v>283</v>
       </c>
       <c r="B94" s="35">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C94" s="32">
-        <v>17370</v>
+        <v>20177</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13744,10 +13744,10 @@
         <v>283</v>
       </c>
       <c r="B95" s="35">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C95" s="32">
-        <v>17590</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13755,10 +13755,10 @@
         <v>283</v>
       </c>
       <c r="B96" s="35">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C96" s="32">
-        <v>11177</v>
+        <v>17603</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13766,10 +13766,10 @@
         <v>283</v>
       </c>
       <c r="B97" s="35">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C97" s="32">
-        <v>1725</v>
+        <v>11188</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13777,10 +13777,10 @@
         <v>283</v>
       </c>
       <c r="B98" s="35">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C98" s="32">
-        <v>8669</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13788,10 +13788,10 @@
         <v>283</v>
       </c>
       <c r="B99" s="35">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C99" s="32">
-        <v>17266</v>
+        <v>8674</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13799,10 +13799,10 @@
         <v>283</v>
       </c>
       <c r="B100" s="35">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C100" s="32">
-        <v>22772</v>
+        <v>17282</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13810,10 +13810,10 @@
         <v>283</v>
       </c>
       <c r="B101" s="35">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C101" s="32">
-        <v>21926</v>
+        <v>22846</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13821,10 +13821,10 @@
         <v>283</v>
       </c>
       <c r="B102" s="35">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C102" s="32">
-        <v>23411</v>
+        <v>21966</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13832,10 +13832,10 @@
         <v>283</v>
       </c>
       <c r="B103" s="35">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C103" s="32">
-        <v>12974</v>
+        <v>23502</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13843,10 +13843,10 @@
         <v>283</v>
       </c>
       <c r="B104" s="35">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C104" s="32">
-        <v>5207</v>
+        <v>13125</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13854,10 +13854,10 @@
         <v>283</v>
       </c>
       <c r="B105" s="35">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C105" s="32">
-        <v>23117</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13865,10 +13865,10 @@
         <v>283</v>
       </c>
       <c r="B106" s="35">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C106" s="32">
-        <v>30198</v>
+        <v>23123</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13876,10 +13876,10 @@
         <v>283</v>
       </c>
       <c r="B107" s="35">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C107" s="32">
-        <v>32137</v>
+        <v>30242</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13887,10 +13887,10 @@
         <v>283</v>
       </c>
       <c r="B108" s="35">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="C108" s="32">
-        <v>31214</v>
+        <v>32156</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13898,10 +13898,10 @@
         <v>283</v>
       </c>
       <c r="B109" s="35">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C109" s="32">
-        <v>28912</v>
+        <v>31235</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13909,10 +13909,10 @@
         <v>283</v>
       </c>
       <c r="B110" s="35">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="C110" s="32">
-        <v>14292</v>
+        <v>29036</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13920,10 +13920,10 @@
         <v>283</v>
       </c>
       <c r="B111" s="35">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="C111" s="32">
-        <v>5906</v>
+        <v>14388</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13931,10 +13931,10 @@
         <v>283</v>
       </c>
       <c r="B112" s="35">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="C112" s="32">
-        <v>23716</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13942,10 +13942,10 @@
         <v>283</v>
       </c>
       <c r="B113" s="35">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="C113" s="32">
-        <v>27000</v>
+        <v>23789</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13953,10 +13953,10 @@
         <v>283</v>
       </c>
       <c r="B114" s="35">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="C114" s="32">
-        <v>34987</v>
+        <v>27242</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13964,10 +13964,10 @@
         <v>283</v>
       </c>
       <c r="B115" s="35">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="C115" s="32">
-        <v>35947</v>
+        <v>35202</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13975,10 +13975,10 @@
         <v>283</v>
       </c>
       <c r="B116" s="35">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="C116" s="32">
-        <v>37056</v>
+        <v>36429</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13986,10 +13986,10 @@
         <v>283</v>
       </c>
       <c r="B117" s="35">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="C117" s="32">
-        <v>22817</v>
+        <v>40275</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13997,10 +13997,10 @@
         <v>283</v>
       </c>
       <c r="B118" s="35">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="C118" s="32">
-        <v>5690</v>
+        <v>23471</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14008,10 +14008,10 @@
         <v>283</v>
       </c>
       <c r="B119" s="35">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="C119" s="32">
-        <v>21032</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14019,10 +14019,10 @@
         <v>283</v>
       </c>
       <c r="B120" s="35">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="C120" s="32">
-        <v>29029</v>
+        <v>21166</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14030,10 +14030,10 @@
         <v>283</v>
       </c>
       <c r="B121" s="35">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="C121" s="32">
-        <v>26028</v>
+        <v>29501</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14041,10 +14041,10 @@
         <v>283</v>
       </c>
       <c r="B122" s="35">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="C122" s="32">
-        <v>16914</v>
+        <v>29652</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14052,32 +14052,32 @@
         <v>283</v>
       </c>
       <c r="B123" s="35">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="C123" s="32">
-        <v>11345</v>
+        <v>26223</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B124" s="35">
-        <v>44179</v>
+        <v>44239</v>
       </c>
       <c r="C124" s="32">
-        <v>24</v>
+        <v>15772</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B125" s="35">
-        <v>44180</v>
+        <v>44240</v>
       </c>
       <c r="C125" s="32">
-        <v>305</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14085,10 +14085,10 @@
         <v>284</v>
       </c>
       <c r="B126" s="35">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C126" s="32">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14096,10 +14096,10 @@
         <v>284</v>
       </c>
       <c r="B127" s="35">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C127" s="32">
-        <v>1431</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14107,10 +14107,10 @@
         <v>284</v>
       </c>
       <c r="B128" s="35">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C128" s="32">
-        <v>2029</v>
+        <v>955</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14118,10 +14118,10 @@
         <v>284</v>
       </c>
       <c r="B129" s="35">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C129" s="32">
-        <v>1009</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14129,10 +14129,10 @@
         <v>284</v>
       </c>
       <c r="B130" s="35">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C130" s="32">
-        <v>498</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14140,10 +14140,10 @@
         <v>284</v>
       </c>
       <c r="B131" s="35">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C131" s="32">
-        <v>1511</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14151,10 +14151,10 @@
         <v>284</v>
       </c>
       <c r="B132" s="35">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C132" s="32">
-        <v>2105</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14162,10 +14162,10 @@
         <v>284</v>
       </c>
       <c r="B133" s="35">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C133" s="32">
-        <v>2924</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14173,10 +14173,10 @@
         <v>284</v>
       </c>
       <c r="B134" s="35">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C134" s="32">
-        <v>1887</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14184,10 +14184,10 @@
         <v>284</v>
       </c>
       <c r="B135" s="35">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C135" s="32">
-        <v>325</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14195,10 +14195,10 @@
         <v>284</v>
       </c>
       <c r="B136" s="35">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C136" s="32">
-        <v>1725</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14206,10 +14206,10 @@
         <v>284</v>
       </c>
       <c r="B137" s="35">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C137" s="32">
-        <v>1120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14217,10 +14217,10 @@
         <v>284</v>
       </c>
       <c r="B138" s="35">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C138" s="32">
-        <v>6663</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14228,10 +14228,10 @@
         <v>284</v>
       </c>
       <c r="B139" s="35">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C139" s="32">
-        <v>10745</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14239,10 +14239,10 @@
         <v>284</v>
       </c>
       <c r="B140" s="35">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C140" s="32">
-        <v>17494</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14250,10 +14250,10 @@
         <v>284</v>
       </c>
       <c r="B141" s="35">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C141" s="32">
-        <v>10882</v>
+        <v>10746</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14261,10 +14261,10 @@
         <v>284</v>
       </c>
       <c r="B142" s="35">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C142" s="32">
-        <v>1332</v>
+        <v>17494</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14272,10 +14272,10 @@
         <v>284</v>
       </c>
       <c r="B143" s="35">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C143" s="32">
-        <v>6300</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14283,10 +14283,10 @@
         <v>284</v>
       </c>
       <c r="B144" s="35">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C144" s="32">
-        <v>3518</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14294,10 +14294,10 @@
         <v>284</v>
       </c>
       <c r="B145" s="35">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C145" s="32">
-        <v>16301</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14305,10 +14305,10 @@
         <v>284</v>
       </c>
       <c r="B146" s="35">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C146" s="32">
-        <v>18395</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14316,10 +14316,10 @@
         <v>284</v>
       </c>
       <c r="B147" s="35">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C147" s="32">
-        <v>20379</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14327,10 +14327,10 @@
         <v>284</v>
       </c>
       <c r="B148" s="35">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C148" s="32">
-        <v>24469</v>
+        <v>18449</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14338,10 +14338,10 @@
         <v>284</v>
       </c>
       <c r="B149" s="35">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C149" s="32">
-        <v>24728</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14349,10 +14349,10 @@
         <v>284</v>
       </c>
       <c r="B150" s="35">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C150" s="32">
-        <v>14047</v>
+        <v>24471</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14360,10 +14360,10 @@
         <v>284</v>
       </c>
       <c r="B151" s="35">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C151" s="32">
-        <v>4419</v>
+        <v>24753</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14371,10 +14371,10 @@
         <v>284</v>
       </c>
       <c r="B152" s="35">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C152" s="32">
-        <v>23789</v>
+        <v>14053</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14382,10 +14382,10 @@
         <v>284</v>
       </c>
       <c r="B153" s="35">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C153" s="32">
-        <v>28935</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14393,10 +14393,10 @@
         <v>284</v>
       </c>
       <c r="B154" s="35">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C154" s="32">
-        <v>30092</v>
+        <v>23798</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14404,10 +14404,10 @@
         <v>284</v>
       </c>
       <c r="B155" s="35">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C155" s="32">
-        <v>34421</v>
+        <v>29105</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14415,10 +14415,10 @@
         <v>284</v>
       </c>
       <c r="B156" s="35">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C156" s="32">
-        <v>30597</v>
+        <v>30154</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14426,10 +14426,10 @@
         <v>284</v>
       </c>
       <c r="B157" s="35">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C157" s="32">
-        <v>25539</v>
+        <v>34437</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14437,10 +14437,10 @@
         <v>284</v>
       </c>
       <c r="B158" s="35">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C158" s="32">
-        <v>6710</v>
+        <v>30615</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14448,10 +14448,10 @@
         <v>284</v>
       </c>
       <c r="B159" s="35">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C159" s="32">
-        <v>12153</v>
+        <v>25557</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14459,10 +14459,10 @@
         <v>284</v>
       </c>
       <c r="B160" s="35">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C160" s="32">
-        <v>22910</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14470,10 +14470,10 @@
         <v>284</v>
       </c>
       <c r="B161" s="35">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C161" s="32">
-        <v>31946</v>
+        <v>12161</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14481,10 +14481,10 @@
         <v>284</v>
       </c>
       <c r="B162" s="35">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C162" s="32">
-        <v>33739</v>
+        <v>22932</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14492,10 +14492,10 @@
         <v>284</v>
       </c>
       <c r="B163" s="35">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C163" s="32">
-        <v>30279</v>
+        <v>32065</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14503,10 +14503,10 @@
         <v>284</v>
       </c>
       <c r="B164" s="35">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C164" s="32">
-        <v>21706</v>
+        <v>33842</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14514,10 +14514,10 @@
         <v>284</v>
       </c>
       <c r="B165" s="35">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C165" s="32">
-        <v>9005</v>
+        <v>30426</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14525,10 +14525,10 @@
         <v>284</v>
       </c>
       <c r="B166" s="35">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C166" s="32">
-        <v>26804</v>
+        <v>21842</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14536,10 +14536,10 @@
         <v>284</v>
       </c>
       <c r="B167" s="35">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C167" s="32">
-        <v>37955</v>
+        <v>9006</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14547,10 +14547,10 @@
         <v>284</v>
       </c>
       <c r="B168" s="35">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C168" s="32">
-        <v>44693</v>
+        <v>26814</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14558,10 +14558,10 @@
         <v>284</v>
       </c>
       <c r="B169" s="35">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C169" s="32">
-        <v>49122</v>
+        <v>37986</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14569,10 +14569,10 @@
         <v>284</v>
       </c>
       <c r="B170" s="35">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="C170" s="32">
-        <v>44580</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14580,10 +14580,10 @@
         <v>284</v>
       </c>
       <c r="B171" s="35">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="C171" s="32">
-        <v>22666</v>
+        <v>49155</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14591,10 +14591,10 @@
         <v>284</v>
       </c>
       <c r="B172" s="35">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="C172" s="32">
-        <v>7156</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14602,10 +14602,10 @@
         <v>284</v>
       </c>
       <c r="B173" s="35">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C173" s="32">
-        <v>35026</v>
+        <v>22944</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14613,10 +14613,10 @@
         <v>284</v>
       </c>
       <c r="B174" s="35">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="C174" s="32">
-        <v>43866</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14624,10 +14624,10 @@
         <v>284</v>
       </c>
       <c r="B175" s="35">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="C175" s="32">
-        <v>57827</v>
+        <v>35154</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14635,10 +14635,10 @@
         <v>284</v>
       </c>
       <c r="B176" s="35">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="C176" s="32">
-        <v>68370</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14646,10 +14646,10 @@
         <v>284</v>
       </c>
       <c r="B177" s="35">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C177" s="32">
-        <v>66008</v>
+        <v>58438</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14657,10 +14657,10 @@
         <v>284</v>
       </c>
       <c r="B178" s="35">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="C178" s="32">
-        <v>46520</v>
+        <v>69495</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14668,10 +14668,10 @@
         <v>284</v>
       </c>
       <c r="B179" s="35">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="C179" s="32">
-        <v>15131</v>
+        <v>71227</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14679,10 +14679,10 @@
         <v>284</v>
       </c>
       <c r="B180" s="35">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="C180" s="32">
-        <v>36710</v>
+        <v>47914</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14690,10 +14690,10 @@
         <v>284</v>
       </c>
       <c r="B181" s="35">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="C181" s="32">
-        <v>48655</v>
+        <v>15172</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14701,10 +14701,10 @@
         <v>284</v>
       </c>
       <c r="B182" s="35">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="C182" s="32">
-        <v>44731</v>
+        <v>37088</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14712,10 +14712,10 @@
         <v>284</v>
       </c>
       <c r="B183" s="35">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="C183" s="32">
-        <v>26843</v>
+        <v>49224</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14723,43 +14723,43 @@
         <v>284</v>
       </c>
       <c r="B184" s="35">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="C184" s="32">
-        <v>20047</v>
+        <v>50942</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" s="35">
-        <v>44179</v>
+        <v>44238</v>
       </c>
       <c r="C185" s="32">
-        <v>1</v>
+        <v>46815</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B186" s="35">
-        <v>44180</v>
+        <v>44239</v>
       </c>
       <c r="C186" s="32">
-        <v>7</v>
+        <v>25377</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" s="35">
-        <v>44181</v>
+        <v>44240</v>
       </c>
       <c r="C187" s="32">
-        <v>34</v>
+        <v>6941</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14767,10 +14767,10 @@
         <v>285</v>
       </c>
       <c r="B188" s="35">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C188" s="32">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14778,10 +14778,10 @@
         <v>285</v>
       </c>
       <c r="B189" s="35">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C189" s="32">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14789,10 +14789,10 @@
         <v>285</v>
       </c>
       <c r="B190" s="35">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C190" s="32">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14800,10 +14800,10 @@
         <v>285</v>
       </c>
       <c r="B191" s="35">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C191" s="32">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14811,10 +14811,10 @@
         <v>285</v>
       </c>
       <c r="B192" s="35">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C192" s="32">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14822,10 +14822,10 @@
         <v>285</v>
       </c>
       <c r="B193" s="35">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C193" s="32">
-        <v>163</v>
+        <v>47</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14833,10 +14833,10 @@
         <v>285</v>
       </c>
       <c r="B194" s="35">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C194" s="32">
-        <v>584</v>
+        <v>89</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14844,10 +14844,10 @@
         <v>285</v>
       </c>
       <c r="B195" s="35">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C195" s="32">
-        <v>409</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14855,10 +14855,10 @@
         <v>285</v>
       </c>
       <c r="B196" s="35">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C196" s="32">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14866,10 +14866,10 @@
         <v>285</v>
       </c>
       <c r="B197" s="35">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C197" s="32">
-        <v>509</v>
+        <v>585</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14877,10 +14877,10 @@
         <v>285</v>
       </c>
       <c r="B198" s="35">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C198" s="32">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14888,10 +14888,10 @@
         <v>285</v>
       </c>
       <c r="B199" s="35">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C199" s="32">
-        <v>2726</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14899,10 +14899,10 @@
         <v>285</v>
       </c>
       <c r="B200" s="35">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C200" s="32">
-        <v>5576</v>
+        <v>509</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14910,10 +14910,10 @@
         <v>285</v>
       </c>
       <c r="B201" s="35">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C201" s="32">
-        <v>7200</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14921,10 +14921,10 @@
         <v>285</v>
       </c>
       <c r="B202" s="35">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C202" s="32">
-        <v>3219</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14932,10 +14932,10 @@
         <v>285</v>
       </c>
       <c r="B203" s="35">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C203" s="32">
-        <v>417</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14943,10 +14943,10 @@
         <v>285</v>
       </c>
       <c r="B204" s="35">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C204" s="32">
-        <v>2057</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14954,10 +14954,10 @@
         <v>285</v>
       </c>
       <c r="B205" s="35">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C205" s="32">
-        <v>1242</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14965,10 +14965,10 @@
         <v>285</v>
       </c>
       <c r="B206" s="35">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C206" s="32">
-        <v>6662</v>
+        <v>419</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14976,10 +14976,10 @@
         <v>285</v>
       </c>
       <c r="B207" s="35">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C207" s="32">
-        <v>5854</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14987,10 +14987,10 @@
         <v>285</v>
       </c>
       <c r="B208" s="35">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C208" s="32">
-        <v>7588</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14998,10 +14998,10 @@
         <v>285</v>
       </c>
       <c r="B209" s="35">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C209" s="32">
-        <v>9440</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15009,10 +15009,10 @@
         <v>285</v>
       </c>
       <c r="B210" s="35">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C210" s="32">
-        <v>8651</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15020,10 +15020,10 @@
         <v>285</v>
       </c>
       <c r="B211" s="35">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C211" s="32">
-        <v>4759</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15031,10 +15031,10 @@
         <v>285</v>
       </c>
       <c r="B212" s="35">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C212" s="32">
-        <v>1386</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15042,10 +15042,10 @@
         <v>285</v>
       </c>
       <c r="B213" s="35">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C213" s="32">
-        <v>8423</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15053,10 +15053,10 @@
         <v>285</v>
       </c>
       <c r="B214" s="35">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C214" s="32">
-        <v>9276</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15064,10 +15064,10 @@
         <v>285</v>
       </c>
       <c r="B215" s="35">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C215" s="32">
-        <v>11601</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15075,10 +15075,10 @@
         <v>285</v>
       </c>
       <c r="B216" s="35">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C216" s="32">
-        <v>12123</v>
+        <v>8426</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15086,10 +15086,10 @@
         <v>285</v>
       </c>
       <c r="B217" s="35">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C217" s="32">
-        <v>9007</v>
+        <v>9307</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15097,10 +15097,10 @@
         <v>285</v>
       </c>
       <c r="B218" s="35">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C218" s="32">
-        <v>5480</v>
+        <v>11613</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15108,10 +15108,10 @@
         <v>285</v>
       </c>
       <c r="B219" s="35">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C219" s="32">
-        <v>1718</v>
+        <v>12139</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15119,10 +15119,10 @@
         <v>285</v>
       </c>
       <c r="B220" s="35">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C220" s="32">
-        <v>5161</v>
+        <v>9018</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15130,10 +15130,10 @@
         <v>285</v>
       </c>
       <c r="B221" s="35">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C221" s="32">
-        <v>8801</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15141,10 +15141,10 @@
         <v>285</v>
       </c>
       <c r="B222" s="35">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C222" s="32">
-        <v>11026</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15152,10 +15152,10 @@
         <v>285</v>
       </c>
       <c r="B223" s="35">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C223" s="32">
-        <v>10657</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15163,10 +15163,10 @@
         <v>285</v>
       </c>
       <c r="B224" s="35">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C224" s="32">
-        <v>8554</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15174,10 +15174,10 @@
         <v>285</v>
       </c>
       <c r="B225" s="35">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C225" s="32">
-        <v>6058</v>
+        <v>11051</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15185,10 +15185,10 @@
         <v>285</v>
       </c>
       <c r="B226" s="35">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C226" s="32">
-        <v>2024</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15196,10 +15196,10 @@
         <v>285</v>
       </c>
       <c r="B227" s="35">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C227" s="32">
-        <v>8963</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15207,10 +15207,10 @@
         <v>285</v>
       </c>
       <c r="B228" s="35">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="C228" s="32">
-        <v>13189</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15218,10 +15218,10 @@
         <v>285</v>
       </c>
       <c r="B229" s="35">
-        <v>44223</v>
+        <v>44220</v>
       </c>
       <c r="C229" s="32">
-        <v>15242</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15229,10 +15229,10 @@
         <v>285</v>
       </c>
       <c r="B230" s="35">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="C230" s="32">
-        <v>15988</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15240,10 +15240,10 @@
         <v>285</v>
       </c>
       <c r="B231" s="35">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="C231" s="32">
-        <v>13592</v>
+        <v>13197</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15251,10 +15251,10 @@
         <v>285</v>
       </c>
       <c r="B232" s="35">
-        <v>44226</v>
+        <v>44223</v>
       </c>
       <c r="C232" s="32">
-        <v>6965</v>
+        <v>15247</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15262,10 +15262,10 @@
         <v>285</v>
       </c>
       <c r="B233" s="35">
-        <v>44227</v>
+        <v>44224</v>
       </c>
       <c r="C233" s="32">
-        <v>3372</v>
+        <v>15994</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15273,10 +15273,10 @@
         <v>285</v>
       </c>
       <c r="B234" s="35">
-        <v>44228</v>
+        <v>44225</v>
       </c>
       <c r="C234" s="32">
-        <v>12446</v>
+        <v>13665</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15284,10 +15284,10 @@
         <v>285</v>
       </c>
       <c r="B235" s="35">
-        <v>44229</v>
+        <v>44226</v>
       </c>
       <c r="C235" s="32">
-        <v>15643</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15295,10 +15295,10 @@
         <v>285</v>
       </c>
       <c r="B236" s="35">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="C236" s="32">
-        <v>17217</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15306,10 +15306,10 @@
         <v>285</v>
       </c>
       <c r="B237" s="35">
-        <v>44231</v>
+        <v>44228</v>
       </c>
       <c r="C237" s="32">
-        <v>19223</v>
+        <v>12486</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15317,10 +15317,10 @@
         <v>285</v>
       </c>
       <c r="B238" s="35">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="C238" s="32">
-        <v>19417</v>
+        <v>15799</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15328,10 +15328,10 @@
         <v>285</v>
       </c>
       <c r="B239" s="35">
-        <v>44233</v>
+        <v>44230</v>
       </c>
       <c r="C239" s="32">
-        <v>11717</v>
+        <v>17390</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15339,10 +15339,10 @@
         <v>285</v>
       </c>
       <c r="B240" s="35">
-        <v>44234</v>
+        <v>44231</v>
       </c>
       <c r="C240" s="32">
-        <v>2964</v>
+        <v>19544</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15350,10 +15350,10 @@
         <v>285</v>
       </c>
       <c r="B241" s="35">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="C241" s="32">
-        <v>11302</v>
+        <v>20805</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15361,10 +15361,10 @@
         <v>285</v>
       </c>
       <c r="B242" s="35">
-        <v>44236</v>
+        <v>44233</v>
       </c>
       <c r="C242" s="32">
-        <v>13848</v>
+        <v>12190</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15372,10 +15372,10 @@
         <v>285</v>
       </c>
       <c r="B243" s="35">
-        <v>44237</v>
+        <v>44234</v>
       </c>
       <c r="C243" s="32">
-        <v>12612</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15383,10 +15383,10 @@
         <v>285</v>
       </c>
       <c r="B244" s="35">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="C244" s="32">
-        <v>7965</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15394,54 +15394,54 @@
         <v>285</v>
       </c>
       <c r="B245" s="35">
-        <v>44239</v>
+        <v>44236</v>
       </c>
       <c r="C245" s="32">
-        <v>5538</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B246" s="35">
-        <v>44180</v>
+        <v>44237</v>
       </c>
       <c r="C246" s="32">
-        <v>2</v>
+        <v>14664</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B247" s="35">
-        <v>44181</v>
+        <v>44238</v>
       </c>
       <c r="C247" s="32">
-        <v>6</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B248" s="35">
-        <v>44182</v>
+        <v>44239</v>
       </c>
       <c r="C248" s="32">
-        <v>13</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B249" s="35">
-        <v>44183</v>
+        <v>44240</v>
       </c>
       <c r="C249" s="32">
-        <v>40</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15449,10 +15449,10 @@
         <v>286</v>
       </c>
       <c r="B250" s="35">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C250" s="32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15460,10 +15460,10 @@
         <v>286</v>
       </c>
       <c r="B251" s="35">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C251" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15471,10 +15471,10 @@
         <v>286</v>
       </c>
       <c r="B252" s="35">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C252" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15482,10 +15482,10 @@
         <v>286</v>
       </c>
       <c r="B253" s="35">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C253" s="32">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15493,10 +15493,10 @@
         <v>286</v>
       </c>
       <c r="B254" s="35">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C254" s="32">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15504,10 +15504,10 @@
         <v>286</v>
       </c>
       <c r="B255" s="35">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C255" s="32">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15515,10 +15515,10 @@
         <v>286</v>
       </c>
       <c r="B256" s="35">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C256" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15526,10 +15526,10 @@
         <v>286</v>
       </c>
       <c r="B257" s="35">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C257" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15537,10 +15537,10 @@
         <v>286</v>
       </c>
       <c r="B258" s="35">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C258" s="32">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15548,10 +15548,10 @@
         <v>286</v>
       </c>
       <c r="B259" s="35">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C259" s="32">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15559,10 +15559,10 @@
         <v>286</v>
       </c>
       <c r="B260" s="35">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C260" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15570,10 +15570,10 @@
         <v>286</v>
       </c>
       <c r="B261" s="35">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C261" s="32">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15581,10 +15581,10 @@
         <v>286</v>
       </c>
       <c r="B262" s="35">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C262" s="32">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15592,10 +15592,10 @@
         <v>286</v>
       </c>
       <c r="B263" s="35">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C263" s="32">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15603,10 +15603,10 @@
         <v>286</v>
       </c>
       <c r="B264" s="35">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C264" s="32">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15614,10 +15614,10 @@
         <v>286</v>
       </c>
       <c r="B265" s="35">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C265" s="32">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15625,10 +15625,10 @@
         <v>286</v>
       </c>
       <c r="B266" s="35">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C266" s="32">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15636,10 +15636,10 @@
         <v>286</v>
       </c>
       <c r="B267" s="35">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C267" s="32">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15647,10 +15647,10 @@
         <v>286</v>
       </c>
       <c r="B268" s="35">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C268" s="32">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15658,10 +15658,10 @@
         <v>286</v>
       </c>
       <c r="B269" s="35">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C269" s="32">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15669,10 +15669,10 @@
         <v>286</v>
       </c>
       <c r="B270" s="35">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C270" s="32">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15680,10 +15680,10 @@
         <v>286</v>
       </c>
       <c r="B271" s="35">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C271" s="32">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15691,10 +15691,10 @@
         <v>286</v>
       </c>
       <c r="B272" s="35">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C272" s="32">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15702,10 +15702,10 @@
         <v>286</v>
       </c>
       <c r="B273" s="35">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C273" s="32">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15713,10 +15713,10 @@
         <v>286</v>
       </c>
       <c r="B274" s="35">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C274" s="32">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15724,10 +15724,10 @@
         <v>286</v>
       </c>
       <c r="B275" s="35">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C275" s="32">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15735,10 +15735,10 @@
         <v>286</v>
       </c>
       <c r="B276" s="35">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C276" s="32">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15746,10 +15746,10 @@
         <v>286</v>
       </c>
       <c r="B277" s="35">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C277" s="32">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15757,10 +15757,10 @@
         <v>286</v>
       </c>
       <c r="B278" s="35">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C278" s="32">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15768,10 +15768,10 @@
         <v>286</v>
       </c>
       <c r="B279" s="35">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C279" s="32">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15779,10 +15779,10 @@
         <v>286</v>
       </c>
       <c r="B280" s="35">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C280" s="32">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15790,10 +15790,10 @@
         <v>286</v>
       </c>
       <c r="B281" s="35">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C281" s="32">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15801,10 +15801,10 @@
         <v>286</v>
       </c>
       <c r="B282" s="35">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C282" s="32">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15812,10 +15812,10 @@
         <v>286</v>
       </c>
       <c r="B283" s="35">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C283" s="32">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15823,10 +15823,10 @@
         <v>286</v>
       </c>
       <c r="B284" s="35">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C284" s="32">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15834,10 +15834,10 @@
         <v>286</v>
       </c>
       <c r="B285" s="35">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C285" s="32">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -15845,10 +15845,10 @@
         <v>286</v>
       </c>
       <c r="B286" s="36">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C286" s="33">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -15856,10 +15856,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="36">
-        <v>44221</v>
+        <v>44217</v>
       </c>
       <c r="C287" s="33">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -15867,10 +15867,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="36">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C288" s="33">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -15878,10 +15878,10 @@
         <v>286</v>
       </c>
       <c r="B289" s="36">
-        <v>44223</v>
+        <v>44219</v>
       </c>
       <c r="C289" s="33">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -15889,10 +15889,10 @@
         <v>286</v>
       </c>
       <c r="B290" s="36">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="C290" s="33">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -15900,10 +15900,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="36">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="C291" s="33">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -15911,10 +15911,10 @@
         <v>286</v>
       </c>
       <c r="B292" s="36">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="C292" s="33">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -15922,10 +15922,10 @@
         <v>286</v>
       </c>
       <c r="B293" s="36">
-        <v>44227</v>
+        <v>44223</v>
       </c>
       <c r="C293" s="33">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -15933,10 +15933,10 @@
         <v>286</v>
       </c>
       <c r="B294" s="36">
-        <v>44228</v>
+        <v>44224</v>
       </c>
       <c r="C294" s="33">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -15944,10 +15944,10 @@
         <v>286</v>
       </c>
       <c r="B295" s="36">
-        <v>44229</v>
+        <v>44225</v>
       </c>
       <c r="C295" s="33">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -15955,10 +15955,10 @@
         <v>286</v>
       </c>
       <c r="B296" s="36">
-        <v>44230</v>
+        <v>44226</v>
       </c>
       <c r="C296" s="33">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -15966,10 +15966,10 @@
         <v>286</v>
       </c>
       <c r="B297" s="36">
-        <v>44231</v>
+        <v>44227</v>
       </c>
       <c r="C297" s="33">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -15977,10 +15977,10 @@
         <v>286</v>
       </c>
       <c r="B298" s="36">
-        <v>44232</v>
+        <v>44228</v>
       </c>
       <c r="C298" s="33">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -15988,10 +15988,10 @@
         <v>286</v>
       </c>
       <c r="B299" s="36">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="C299" s="33">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -15999,10 +15999,10 @@
         <v>286</v>
       </c>
       <c r="B300" s="36">
-        <v>44234</v>
+        <v>44230</v>
       </c>
       <c r="C300" s="33">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -16010,10 +16010,10 @@
         <v>286</v>
       </c>
       <c r="B301" s="36">
-        <v>44235</v>
+        <v>44231</v>
       </c>
       <c r="C301" s="33">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -16021,10 +16021,10 @@
         <v>286</v>
       </c>
       <c r="B302" s="36">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="C302" s="33">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -16032,10 +16032,10 @@
         <v>286</v>
       </c>
       <c r="B303" s="36">
-        <v>44237</v>
+        <v>44233</v>
       </c>
       <c r="C303" s="33">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -16043,10 +16043,10 @@
         <v>286</v>
       </c>
       <c r="B304" s="36">
-        <v>44238</v>
+        <v>44234</v>
       </c>
       <c r="C304" s="33">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -16054,10 +16054,65 @@
         <v>286</v>
       </c>
       <c r="B305" s="36">
+        <v>44235</v>
+      </c>
+      <c r="C305" s="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B306" s="36">
+        <v>44236</v>
+      </c>
+      <c r="C306" s="33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B307" s="36">
+        <v>44237</v>
+      </c>
+      <c r="C307" s="33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B308" s="36">
+        <v>44238</v>
+      </c>
+      <c r="C308" s="33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B309" s="36">
         <v>44239</v>
       </c>
-      <c r="C305" s="33">
-        <v>32</v>
+      <c r="C309" s="33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B310" s="36">
+        <v>44240</v>
+      </c>
+      <c r="C310" s="33">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
